--- a/hw05/data/ghgcanada.xlsx
+++ b/hw05/data/ghgcanada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JF/Documents/GitHub/stat545-hw-juanfercovic/hw05/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F46890-7F10-2943-A640-A19AB5DE1FAC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1B9E04-7DE2-F247-836B-24300724D3E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1860" windowWidth="28040" windowHeight="17440" xr2:uid="{D92EF31F-2A0C-9940-86A0-6458B5E421EF}"/>
+    <workbookView xWindow="760" yWindow="560" windowWidth="28040" windowHeight="17440" xr2:uid="{D92EF31F-2A0C-9940-86A0-6458B5E421EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="45">
   <si>
     <t>cma</t>
   </si>
@@ -151,6 +151,15 @@
   </si>
   <si>
     <t>Northwest Territories</t>
+  </si>
+  <si>
+    <t>gasemi</t>
+  </si>
+  <si>
+    <t>elecemi</t>
+  </si>
+  <si>
+    <t>ngemi</t>
   </si>
 </sst>
 </file>
@@ -502,15 +511,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C4E8F2-BFFE-454C-ABE5-3D5E9BFFEB8C}">
-  <dimension ref="A1:M188"/>
+  <dimension ref="A1:P188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M189"/>
+      <selection sqref="A1:P189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -539,19 +548,28 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -580,19 +598,28 @@
         <v>53.2</v>
       </c>
       <c r="J2">
+        <v>5.7855869999999996</v>
+      </c>
+      <c r="K2">
+        <v>8.453773</v>
+      </c>
+      <c r="L2">
+        <v>6.857634</v>
+      </c>
+      <c r="M2">
         <v>63774</v>
       </c>
-      <c r="K2">
+      <c r="N2">
         <v>2.73</v>
       </c>
-      <c r="L2">
+      <c r="O2">
         <v>45</v>
       </c>
-      <c r="M2">
+      <c r="P2">
         <v>5020.8999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -621,19 +648,28 @@
         <v>48.9</v>
       </c>
       <c r="J3">
+        <v>6.124606</v>
+      </c>
+      <c r="K3">
+        <v>8.6117179999999998</v>
+      </c>
+      <c r="L3">
+        <v>7.0983530000000004</v>
+      </c>
+      <c r="M3">
         <v>64887</v>
       </c>
-      <c r="K3">
+      <c r="N3">
         <v>2.68</v>
       </c>
-      <c r="L3">
+      <c r="O3">
         <v>46</v>
       </c>
-      <c r="M3">
+      <c r="P3">
         <v>4963.5</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -662,19 +698,28 @@
         <v>52.6</v>
       </c>
       <c r="J4">
+        <v>6.0628000000000002</v>
+      </c>
+      <c r="K4">
+        <v>8.0193829999999995</v>
+      </c>
+      <c r="L4">
+        <v>6.5019400000000003</v>
+      </c>
+      <c r="M4">
         <v>68908</v>
       </c>
-      <c r="K4">
+      <c r="N4">
         <v>2.66</v>
       </c>
-      <c r="L4">
+      <c r="O4">
         <v>45</v>
       </c>
-      <c r="M4">
+      <c r="P4">
         <v>4712</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -703,19 +748,28 @@
         <v>64</v>
       </c>
       <c r="J5">
+        <v>5.7008960000000002</v>
+      </c>
+      <c r="K5">
+        <v>7.8589089999999997</v>
+      </c>
+      <c r="L5">
+        <v>6.2222650000000002</v>
+      </c>
+      <c r="M5">
         <v>66727</v>
       </c>
-      <c r="K5">
+      <c r="N5">
         <v>2.69</v>
       </c>
-      <c r="L5">
+      <c r="O5">
         <v>46</v>
       </c>
-      <c r="M5">
+      <c r="P5">
         <v>5277.2</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -744,19 +798,28 @@
         <v>64.5</v>
       </c>
       <c r="J6">
+        <v>5.3591059999999997</v>
+      </c>
+      <c r="K6">
+        <v>7.7615319999999999</v>
+      </c>
+      <c r="L6">
+        <v>5.5522400000000003</v>
+      </c>
+      <c r="M6">
         <v>78337</v>
       </c>
-      <c r="K6">
+      <c r="N6">
         <v>2.62</v>
       </c>
-      <c r="L6">
+      <c r="O6">
         <v>46</v>
       </c>
-      <c r="M6">
+      <c r="P6">
         <v>4794.2</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -785,19 +848,28 @@
         <v>64.599999999999994</v>
       </c>
       <c r="J7">
+        <v>5.8827920000000002</v>
+      </c>
+      <c r="K7">
+        <v>7.0462569999999998</v>
+      </c>
+      <c r="L7">
+        <v>6.6401940000000002</v>
+      </c>
+      <c r="M7">
         <v>82425</v>
       </c>
-      <c r="K7">
+      <c r="N7">
         <v>2.68</v>
       </c>
-      <c r="L7">
+      <c r="O7">
         <v>46</v>
       </c>
-      <c r="M7">
+      <c r="P7">
         <v>5286.1</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -826,19 +898,28 @@
         <v>66.3</v>
       </c>
       <c r="J8">
+        <v>5.4923640000000002</v>
+      </c>
+      <c r="K8">
+        <v>6.9824669999999998</v>
+      </c>
+      <c r="L8">
+        <v>5.4582290000000002</v>
+      </c>
+      <c r="M8">
         <v>71986</v>
       </c>
-      <c r="K8">
+      <c r="N8">
         <v>2.58</v>
       </c>
-      <c r="L8">
+      <c r="O8">
         <v>46</v>
       </c>
-      <c r="M8">
+      <c r="P8">
         <v>5072.8999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -867,19 +948,28 @@
         <v>74.8</v>
       </c>
       <c r="J9">
+        <v>5.5278739999999997</v>
+      </c>
+      <c r="K9">
+        <v>7.0719149999999997</v>
+      </c>
+      <c r="L9">
+        <v>5.7780990000000001</v>
+      </c>
+      <c r="M9">
         <v>86866</v>
       </c>
-      <c r="K9">
+      <c r="N9">
         <v>2.52</v>
       </c>
-      <c r="L9">
+      <c r="O9">
         <v>45</v>
       </c>
-      <c r="M9">
+      <c r="P9">
         <v>4817.7</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -908,19 +998,28 @@
         <v>92.3</v>
       </c>
       <c r="J10">
+        <v>4.7399120000000003</v>
+      </c>
+      <c r="K10">
+        <v>6.459956</v>
+      </c>
+      <c r="L10">
+        <v>5.9602820000000003</v>
+      </c>
+      <c r="M10">
         <v>102679</v>
       </c>
-      <c r="K10">
+      <c r="N10">
         <v>2.64</v>
       </c>
-      <c r="L10">
+      <c r="O10">
         <v>45</v>
       </c>
-      <c r="M10">
+      <c r="P10">
         <v>4693.7</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -949,19 +1048,28 @@
         <v>98.5</v>
       </c>
       <c r="J11">
+        <v>4.9769350000000001</v>
+      </c>
+      <c r="K11">
+        <v>5.8093649999999997</v>
+      </c>
+      <c r="L11">
+        <v>5.901268</v>
+      </c>
+      <c r="M11">
         <v>102591</v>
       </c>
-      <c r="K11">
+      <c r="N11">
         <v>2.6</v>
       </c>
-      <c r="L11">
+      <c r="O11">
         <v>47</v>
       </c>
-      <c r="M11">
+      <c r="P11">
         <v>4872.8999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -990,19 +1098,25 @@
         <v>111.1</v>
       </c>
       <c r="J12">
+        <v>4.4131859999999996</v>
+      </c>
+      <c r="K12">
+        <v>6.0905709999999997</v>
+      </c>
+      <c r="M12">
         <v>97586</v>
       </c>
-      <c r="K12">
+      <c r="N12">
         <v>2.52</v>
       </c>
-      <c r="L12">
+      <c r="O12">
         <v>46</v>
       </c>
-      <c r="M12">
+      <c r="P12">
         <v>4982.6000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1031,19 +1145,28 @@
         <v>88.8</v>
       </c>
       <c r="J13">
+        <v>5.0653459999999999</v>
+      </c>
+      <c r="K13">
+        <v>6.0750409999999997</v>
+      </c>
+      <c r="L13">
+        <v>7.0313460000000001</v>
+      </c>
+      <c r="M13">
         <v>106760</v>
       </c>
-      <c r="K13">
+      <c r="N13">
         <v>2.73</v>
       </c>
-      <c r="L13">
+      <c r="O13">
         <v>44</v>
       </c>
-      <c r="M13">
+      <c r="P13">
         <v>5168.6000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1066,19 +1189,25 @@
         <v>60.6</v>
       </c>
       <c r="J14">
+        <v>5.4855330000000002</v>
+      </c>
+      <c r="K14">
+        <v>0.16800999999999999</v>
+      </c>
+      <c r="M14">
         <v>43832</v>
       </c>
-      <c r="K14">
+      <c r="N14">
         <v>2.52</v>
       </c>
-      <c r="L14">
+      <c r="O14">
         <v>49</v>
       </c>
-      <c r="M14">
+      <c r="P14">
         <v>4952.3</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1101,19 +1230,25 @@
         <v>53.6</v>
       </c>
       <c r="J15">
+        <v>5.7227790000000001</v>
+      </c>
+      <c r="K15">
+        <v>0.17091049999999999</v>
+      </c>
+      <c r="M15">
         <v>44833</v>
       </c>
-      <c r="K15">
+      <c r="N15">
         <v>2.38</v>
       </c>
-      <c r="L15">
+      <c r="O15">
         <v>51</v>
       </c>
-      <c r="M15">
+      <c r="P15">
         <v>4338.1000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1136,19 +1271,25 @@
         <v>52.9</v>
       </c>
       <c r="J16">
+        <v>5.8622300000000003</v>
+      </c>
+      <c r="K16">
+        <v>0.16131819999999999</v>
+      </c>
+      <c r="M16">
         <v>44009</v>
       </c>
-      <c r="K16">
+      <c r="N16">
         <v>2.2599999999999998</v>
       </c>
-      <c r="L16">
+      <c r="O16">
         <v>51</v>
       </c>
-      <c r="M16">
+      <c r="P16">
         <v>4061.2</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1171,19 +1312,25 @@
         <v>70.099999999999994</v>
       </c>
       <c r="J17">
+        <v>5.4116869999999997</v>
+      </c>
+      <c r="K17">
+        <v>0.16218399999999999</v>
+      </c>
+      <c r="M17">
         <v>43913</v>
       </c>
-      <c r="K17">
+      <c r="N17">
         <v>2.29</v>
       </c>
-      <c r="L17">
+      <c r="O17">
         <v>50</v>
       </c>
-      <c r="M17">
+      <c r="P17">
         <v>4484.3</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1206,19 +1353,25 @@
         <v>71.900000000000006</v>
       </c>
       <c r="J18">
+        <v>5.0178250000000002</v>
+      </c>
+      <c r="K18">
+        <v>0.16546379999999999</v>
+      </c>
+      <c r="M18">
         <v>44127</v>
       </c>
-      <c r="K18">
+      <c r="N18">
         <v>2.2200000000000002</v>
       </c>
-      <c r="L18">
+      <c r="O18">
         <v>50</v>
       </c>
-      <c r="M18">
+      <c r="P18">
         <v>4442.3</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1241,19 +1394,25 @@
         <v>68.2</v>
       </c>
       <c r="J19">
+        <v>5.7014509999999996</v>
+      </c>
+      <c r="K19">
+        <v>0.1612517</v>
+      </c>
+      <c r="M19">
         <v>44931</v>
       </c>
-      <c r="K19">
+      <c r="N19">
         <v>2.21</v>
       </c>
-      <c r="L19">
+      <c r="O19">
         <v>50</v>
       </c>
-      <c r="M19">
+      <c r="P19">
         <v>4622.7</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1276,19 +1435,25 @@
         <v>74</v>
       </c>
       <c r="J20">
+        <v>5.4871749999999997</v>
+      </c>
+      <c r="K20">
+        <v>0.16165560000000001</v>
+      </c>
+      <c r="M20">
         <v>48290</v>
       </c>
-      <c r="K20">
+      <c r="N20">
         <v>2.27</v>
       </c>
-      <c r="L20">
+      <c r="O20">
         <v>51</v>
       </c>
-      <c r="M20">
+      <c r="P20">
         <v>4615.2</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1311,19 +1476,25 @@
         <v>84.1</v>
       </c>
       <c r="J21">
+        <v>5.6027570000000004</v>
+      </c>
+      <c r="K21">
+        <v>0.16098409999999999</v>
+      </c>
+      <c r="M21">
         <v>56598</v>
       </c>
-      <c r="K21">
+      <c r="N21">
         <v>2.5</v>
       </c>
-      <c r="L21">
+      <c r="O21">
         <v>51</v>
       </c>
-      <c r="M21">
+      <c r="P21">
         <v>4734.1000000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1346,19 +1517,25 @@
         <v>103</v>
       </c>
       <c r="J22">
+        <v>4.9154590000000002</v>
+      </c>
+      <c r="K22">
+        <v>0.1545579</v>
+      </c>
+      <c r="M22">
         <v>58565</v>
       </c>
-      <c r="K22">
+      <c r="N22">
         <v>2.4900000000000002</v>
       </c>
-      <c r="L22">
+      <c r="O22">
         <v>49</v>
       </c>
-      <c r="M22">
+      <c r="P22">
         <v>3996.1</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -1381,19 +1558,25 @@
         <v>104.2</v>
       </c>
       <c r="J23">
+        <v>5.1622250000000003</v>
+      </c>
+      <c r="K23">
+        <v>0.15068619999999999</v>
+      </c>
+      <c r="M23">
         <v>61856</v>
       </c>
-      <c r="K23">
+      <c r="N23">
         <v>2.4900000000000002</v>
       </c>
-      <c r="L23">
+      <c r="O23">
         <v>51</v>
       </c>
-      <c r="M23">
+      <c r="P23">
         <v>4672.8999999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -1416,19 +1599,25 @@
         <v>114.5</v>
       </c>
       <c r="J24">
+        <v>4.7880649999999996</v>
+      </c>
+      <c r="K24">
+        <v>0.14558389999999999</v>
+      </c>
+      <c r="M24">
         <v>63987</v>
       </c>
-      <c r="K24">
+      <c r="N24">
         <v>2.48</v>
       </c>
-      <c r="L24">
+      <c r="O24">
         <v>51</v>
       </c>
-      <c r="M24">
+      <c r="P24">
         <v>4389</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1451,19 +1640,25 @@
         <v>93.3</v>
       </c>
       <c r="J25">
+        <v>5.2856459999999998</v>
+      </c>
+      <c r="K25">
+        <v>0.138207</v>
+      </c>
+      <c r="M25">
         <v>62627</v>
       </c>
-      <c r="K25">
+      <c r="N25">
         <v>2.37</v>
       </c>
-      <c r="L25">
+      <c r="O25">
         <v>50</v>
       </c>
-      <c r="M25">
+      <c r="P25">
         <v>4558.6000000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -1492,19 +1687,28 @@
         <v>52.1</v>
       </c>
       <c r="J26">
+        <v>6.1694420000000001</v>
+      </c>
+      <c r="K26">
+        <v>10.445399999999999</v>
+      </c>
+      <c r="L26">
+        <v>7.9060519999999999</v>
+      </c>
+      <c r="M26">
         <v>57224</v>
       </c>
-      <c r="K26">
+      <c r="N26">
         <v>2.71</v>
       </c>
-      <c r="L26">
+      <c r="O26">
         <v>47</v>
       </c>
-      <c r="M26">
+      <c r="P26">
         <v>5028.7</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -1533,19 +1737,28 @@
         <v>47</v>
       </c>
       <c r="J27">
+        <v>6.6629959999999997</v>
+      </c>
+      <c r="K27">
+        <v>10.535600000000001</v>
+      </c>
+      <c r="L27">
+        <v>7.7006990000000002</v>
+      </c>
+      <c r="M27">
         <v>61734</v>
       </c>
-      <c r="K27">
+      <c r="N27">
         <v>2.9</v>
       </c>
-      <c r="L27">
+      <c r="O27">
         <v>46</v>
       </c>
-      <c r="M27">
+      <c r="P27">
         <v>4900.8999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -1574,19 +1787,28 @@
         <v>51.4</v>
       </c>
       <c r="J28">
+        <v>6.6130870000000002</v>
+      </c>
+      <c r="K28">
+        <v>9.992343</v>
+      </c>
+      <c r="L28">
+        <v>7.3719929999999998</v>
+      </c>
+      <c r="M28">
         <v>59306</v>
       </c>
-      <c r="K28">
+      <c r="N28">
         <v>2.69</v>
       </c>
-      <c r="L28">
+      <c r="O28">
         <v>48</v>
       </c>
-      <c r="M28">
+      <c r="P28">
         <v>4892.8</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -1615,19 +1837,28 @@
         <v>63.5</v>
       </c>
       <c r="J29">
+        <v>6.2722309999999997</v>
+      </c>
+      <c r="K29">
+        <v>10.05963</v>
+      </c>
+      <c r="L29">
+        <v>7.0360740000000002</v>
+      </c>
+      <c r="M29">
         <v>68040</v>
       </c>
-      <c r="K29">
+      <c r="N29">
         <v>2.8</v>
       </c>
-      <c r="L29">
+      <c r="O29">
         <v>48</v>
       </c>
-      <c r="M29">
+      <c r="P29">
         <v>5334.9</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -1656,19 +1887,28 @@
         <v>61.3</v>
       </c>
       <c r="J30">
+        <v>6.0308339999999996</v>
+      </c>
+      <c r="K30">
+        <v>9.8401049999999994</v>
+      </c>
+      <c r="L30">
+        <v>6.1856549999999997</v>
+      </c>
+      <c r="M30">
         <v>69652</v>
       </c>
-      <c r="K30">
+      <c r="N30">
         <v>2.73</v>
       </c>
-      <c r="L30">
+      <c r="O30">
         <v>47</v>
       </c>
-      <c r="M30">
+      <c r="P30">
         <v>4740</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -1697,19 +1937,28 @@
         <v>63.4</v>
       </c>
       <c r="J31">
+        <v>6.2537430000000001</v>
+      </c>
+      <c r="K31">
+        <v>9.0869239999999998</v>
+      </c>
+      <c r="L31">
+        <v>7.1033980000000003</v>
+      </c>
+      <c r="M31">
         <v>66809</v>
       </c>
-      <c r="K31">
+      <c r="N31">
         <v>2.5499999999999998</v>
       </c>
-      <c r="L31">
+      <c r="O31">
         <v>49</v>
       </c>
-      <c r="M31">
+      <c r="P31">
         <v>5351.2</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -1738,19 +1987,28 @@
         <v>67.400000000000006</v>
       </c>
       <c r="J32">
+        <v>5.9777769999999997</v>
+      </c>
+      <c r="K32">
+        <v>9.2213799999999999</v>
+      </c>
+      <c r="L32">
+        <v>6.0088670000000004</v>
+      </c>
+      <c r="M32">
         <v>69476</v>
       </c>
-      <c r="K32">
+      <c r="N32">
         <v>2.61</v>
       </c>
-      <c r="L32">
+      <c r="O32">
         <v>46</v>
       </c>
-      <c r="M32">
+      <c r="P32">
         <v>5294.4</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -1779,19 +2037,28 @@
         <v>75.900000000000006</v>
       </c>
       <c r="J33">
+        <v>5.8429479999999998</v>
+      </c>
+      <c r="K33">
+        <v>9.2299480000000003</v>
+      </c>
+      <c r="L33">
+        <v>6.2230990000000004</v>
+      </c>
+      <c r="M33">
         <v>70488</v>
       </c>
-      <c r="K33">
+      <c r="N33">
         <v>2.6</v>
       </c>
-      <c r="L33">
+      <c r="O33">
         <v>50</v>
       </c>
-      <c r="M33">
+      <c r="P33">
         <v>5143.8</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:16">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -1820,19 +2087,28 @@
         <v>91</v>
       </c>
       <c r="J34">
+        <v>5.1288270000000002</v>
+      </c>
+      <c r="K34">
+        <v>8.6066500000000001</v>
+      </c>
+      <c r="L34">
+        <v>5.6083179999999997</v>
+      </c>
+      <c r="M34">
         <v>78868</v>
       </c>
-      <c r="K34">
+      <c r="N34">
         <v>2.63</v>
       </c>
-      <c r="L34">
+      <c r="O34">
         <v>47</v>
       </c>
-      <c r="M34">
+      <c r="P34">
         <v>4802.2</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -1861,19 +2137,28 @@
         <v>96.7</v>
       </c>
       <c r="J35">
+        <v>5.4756960000000001</v>
+      </c>
+      <c r="K35">
+        <v>8.1616119999999999</v>
+      </c>
+      <c r="L35">
+        <v>6.047072</v>
+      </c>
+      <c r="M35">
         <v>91397</v>
       </c>
-      <c r="K35">
+      <c r="N35">
         <v>2.67</v>
       </c>
-      <c r="L35">
+      <c r="O35">
         <v>48</v>
       </c>
-      <c r="M35">
+      <c r="P35">
         <v>5055.6000000000004</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:16">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -1902,19 +2187,28 @@
         <v>109.2</v>
       </c>
       <c r="J36">
+        <v>4.941554</v>
+      </c>
+      <c r="K36">
+        <v>8.3311729999999997</v>
+      </c>
+      <c r="L36">
+        <v>6.4566489999999996</v>
+      </c>
+      <c r="M36">
         <v>101432</v>
       </c>
-      <c r="K36">
+      <c r="N36">
         <v>2.75</v>
       </c>
-      <c r="L36">
+      <c r="O36">
         <v>45</v>
       </c>
-      <c r="M36">
+      <c r="P36">
         <v>5102.8</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:16">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -1943,19 +2237,28 @@
         <v>86.5</v>
       </c>
       <c r="J37">
+        <v>5.3424759999999996</v>
+      </c>
+      <c r="K37">
+        <v>8.3418899999999994</v>
+      </c>
+      <c r="L37">
+        <v>7.0027280000000003</v>
+      </c>
+      <c r="M37">
         <v>89728</v>
       </c>
-      <c r="K37">
+      <c r="N37">
         <v>2.44</v>
       </c>
-      <c r="L37">
+      <c r="O37">
         <v>46</v>
       </c>
-      <c r="M37">
+      <c r="P37">
         <v>5406.6</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -1978,19 +2281,25 @@
         <v>60.6</v>
       </c>
       <c r="J38">
+        <v>5.219055</v>
+      </c>
+      <c r="K38">
+        <v>9.6427589999999999</v>
+      </c>
+      <c r="M38">
         <v>51135</v>
       </c>
-      <c r="K38">
+      <c r="N38">
         <v>2.62</v>
       </c>
-      <c r="L38">
+      <c r="O38">
         <v>46</v>
       </c>
-      <c r="M38">
+      <c r="P38">
         <v>4266.3999999999996</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:16">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -2013,19 +2322,25 @@
         <v>57.1</v>
       </c>
       <c r="J39">
+        <v>5.3518689999999998</v>
+      </c>
+      <c r="K39">
+        <v>9.7125719999999998</v>
+      </c>
+      <c r="M39">
         <v>51197</v>
       </c>
-      <c r="K39">
+      <c r="N39">
         <v>2.59</v>
       </c>
-      <c r="L39">
+      <c r="O39">
         <v>46</v>
       </c>
-      <c r="M39">
+      <c r="P39">
         <v>3796.3</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:16">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -2048,19 +2363,25 @@
         <v>60.8</v>
       </c>
       <c r="J40">
+        <v>5.3695380000000004</v>
+      </c>
+      <c r="K40">
+        <v>9.2117620000000002</v>
+      </c>
+      <c r="M40">
         <v>53653</v>
       </c>
-      <c r="K40">
+      <c r="N40">
         <v>2.44</v>
       </c>
-      <c r="L40">
+      <c r="O40">
         <v>46</v>
       </c>
-      <c r="M40">
+      <c r="P40">
         <v>3591.8</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:16">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -2086,19 +2407,25 @@
         <v>76.099999999999994</v>
       </c>
       <c r="J41">
+        <v>4.8706940000000003</v>
+      </c>
+      <c r="K41">
+        <v>9.4118460000000006</v>
+      </c>
+      <c r="M41">
         <v>58241</v>
       </c>
-      <c r="K41">
+      <c r="N41">
         <v>2.37</v>
       </c>
-      <c r="L41">
+      <c r="O41">
         <v>48</v>
       </c>
-      <c r="M41">
+      <c r="P41">
         <v>3850</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:16">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -2124,19 +2451,25 @@
         <v>72.8</v>
       </c>
       <c r="J42">
+        <v>4.8520070000000004</v>
+      </c>
+      <c r="K42">
+        <v>9.7778080000000003</v>
+      </c>
+      <c r="M42">
         <v>59135</v>
       </c>
-      <c r="K42">
+      <c r="N42">
         <v>2.46</v>
       </c>
-      <c r="L42">
+      <c r="O42">
         <v>47</v>
       </c>
-      <c r="M42">
+      <c r="P42">
         <v>3810.9</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:16">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -2162,19 +2495,25 @@
         <v>73.400000000000006</v>
       </c>
       <c r="J43">
+        <v>5.2850219999999997</v>
+      </c>
+      <c r="K43">
+        <v>9.4537320000000005</v>
+      </c>
+      <c r="M43">
         <v>61944</v>
       </c>
-      <c r="K43">
+      <c r="N43">
         <v>2.44</v>
       </c>
-      <c r="L43">
+      <c r="O43">
         <v>47</v>
       </c>
-      <c r="M43">
+      <c r="P43">
         <v>3952.5</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:16">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -2200,19 +2539,25 @@
         <v>78</v>
       </c>
       <c r="J44">
+        <v>5.0363949999999997</v>
+      </c>
+      <c r="K44">
+        <v>9.4973329999999994</v>
+      </c>
+      <c r="M44">
         <v>60132</v>
       </c>
-      <c r="K44">
+      <c r="N44">
         <v>2.31</v>
       </c>
-      <c r="L44">
+      <c r="O44">
         <v>49</v>
       </c>
-      <c r="M44">
+      <c r="P44">
         <v>4052.3</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:16">
       <c r="A45" t="s">
         <v>15</v>
       </c>
@@ -2238,19 +2583,25 @@
         <v>87.5</v>
       </c>
       <c r="J45">
+        <v>5.0330510000000004</v>
+      </c>
+      <c r="K45">
+        <v>9.3600689999999993</v>
+      </c>
+      <c r="M45">
         <v>62419</v>
       </c>
-      <c r="K45">
+      <c r="N45">
         <v>2.3199999999999998</v>
       </c>
-      <c r="L45">
+      <c r="O45">
         <v>49</v>
       </c>
-      <c r="M45">
+      <c r="P45">
         <v>4278.1000000000004</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:16">
       <c r="A46" t="s">
         <v>15</v>
       </c>
@@ -2276,19 +2627,25 @@
         <v>103.7</v>
       </c>
       <c r="J46">
+        <v>4.4307850000000002</v>
+      </c>
+      <c r="K46">
+        <v>8.8423390000000008</v>
+      </c>
+      <c r="M46">
         <v>67195</v>
       </c>
-      <c r="K46">
+      <c r="N46">
         <v>2.44</v>
       </c>
-      <c r="L46">
+      <c r="O46">
         <v>49</v>
       </c>
-      <c r="M46">
+      <c r="P46">
         <v>3402.1</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:16">
       <c r="A47" t="s">
         <v>15</v>
       </c>
@@ -2314,19 +2671,25 @@
         <v>106.8</v>
       </c>
       <c r="J47">
+        <v>4.6832279999999997</v>
+      </c>
+      <c r="K47">
+        <v>8.8341130000000003</v>
+      </c>
+      <c r="M47">
         <v>70950</v>
       </c>
-      <c r="K47">
+      <c r="N47">
         <v>2.38</v>
       </c>
-      <c r="L47">
+      <c r="O47">
         <v>49</v>
       </c>
-      <c r="M47">
+      <c r="P47">
         <v>4083.6</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:16">
       <c r="A48" t="s">
         <v>15</v>
       </c>
@@ -2352,19 +2715,25 @@
         <v>118.4</v>
       </c>
       <c r="J48">
+        <v>4.1043250000000002</v>
+      </c>
+      <c r="K48">
+        <v>8.9864320000000006</v>
+      </c>
+      <c r="M48">
         <v>71018</v>
       </c>
-      <c r="K48">
+      <c r="N48">
         <v>2.37</v>
       </c>
-      <c r="L48">
+      <c r="O48">
         <v>50</v>
       </c>
-      <c r="M48">
+      <c r="P48">
         <v>3904.3</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:16">
       <c r="A49" t="s">
         <v>15</v>
       </c>
@@ -2390,19 +2759,25 @@
         <v>96.2</v>
       </c>
       <c r="J49">
+        <v>4.7999320000000001</v>
+      </c>
+      <c r="K49">
+        <v>8.4755769999999995</v>
+      </c>
+      <c r="M49">
         <v>74026</v>
       </c>
-      <c r="K49">
+      <c r="N49">
         <v>2.33</v>
       </c>
-      <c r="L49">
+      <c r="O49">
         <v>49</v>
       </c>
-      <c r="M49">
+      <c r="P49">
         <v>3982.6</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:16">
       <c r="A50" t="s">
         <v>16</v>
       </c>
@@ -2431,19 +2806,28 @@
         <v>61.9</v>
       </c>
       <c r="J50">
+        <v>4.7484200000000003</v>
+      </c>
+      <c r="K50">
+        <v>6.0926099999999997E-2</v>
+      </c>
+      <c r="L50">
+        <v>1.8611070000000001</v>
+      </c>
+      <c r="M50">
         <v>48726</v>
       </c>
-      <c r="K50">
+      <c r="N50">
         <v>2.4500000000000002</v>
       </c>
-      <c r="L50">
+      <c r="O50">
         <v>48</v>
       </c>
-      <c r="M50">
+      <c r="P50">
         <v>4634.2</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:16">
       <c r="A51" t="s">
         <v>16</v>
       </c>
@@ -2472,19 +2856,28 @@
         <v>56.3</v>
       </c>
       <c r="J51">
+        <v>4.9735769999999997</v>
+      </c>
+      <c r="K51">
+        <v>6.0930100000000001E-2</v>
+      </c>
+      <c r="L51">
+        <v>1.5960989999999999</v>
+      </c>
+      <c r="M51">
         <v>47342</v>
       </c>
-      <c r="K51">
+      <c r="N51">
         <v>2.38</v>
       </c>
-      <c r="L51">
+      <c r="O51">
         <v>49</v>
       </c>
-      <c r="M51">
+      <c r="P51">
         <v>3733.2</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:16">
       <c r="A52" t="s">
         <v>16</v>
       </c>
@@ -2513,19 +2906,28 @@
         <v>63</v>
       </c>
       <c r="J52">
+        <v>4.9920119999999999</v>
+      </c>
+      <c r="K52">
+        <v>5.9550499999999999E-2</v>
+      </c>
+      <c r="L52">
+        <v>1.4657899999999999</v>
+      </c>
+      <c r="M52">
         <v>51433</v>
       </c>
-      <c r="K52">
+      <c r="N52">
         <v>2.42</v>
       </c>
-      <c r="L52">
+      <c r="O52">
         <v>49</v>
       </c>
-      <c r="M52">
+      <c r="P52">
         <v>3952.7</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:16">
       <c r="A53" t="s">
         <v>16</v>
       </c>
@@ -2554,19 +2956,28 @@
         <v>77.2</v>
       </c>
       <c r="J53">
+        <v>4.592822</v>
+      </c>
+      <c r="K53">
+        <v>6.0599E-2</v>
+      </c>
+      <c r="L53">
+        <v>1.2659530000000001</v>
+      </c>
+      <c r="M53">
         <v>52965</v>
       </c>
-      <c r="K53">
+      <c r="N53">
         <v>2.31</v>
       </c>
-      <c r="L53">
+      <c r="O53">
         <v>49</v>
       </c>
-      <c r="M53">
+      <c r="P53">
         <v>4402.8</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:16">
       <c r="A54" t="s">
         <v>16</v>
       </c>
@@ -2595,19 +3006,28 @@
         <v>73.8</v>
       </c>
       <c r="J54">
+        <v>4.444947</v>
+      </c>
+      <c r="K54">
+        <v>6.0990099999999998E-2</v>
+      </c>
+      <c r="L54">
+        <v>0.79211180000000003</v>
+      </c>
+      <c r="M54">
         <v>56090</v>
       </c>
-      <c r="K54">
+      <c r="N54">
         <v>2.38</v>
       </c>
-      <c r="L54">
+      <c r="O54">
         <v>49</v>
       </c>
-      <c r="M54">
+      <c r="P54">
         <v>4004</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:16">
       <c r="A55" t="s">
         <v>16</v>
       </c>
@@ -2636,19 +3056,28 @@
         <v>71.400000000000006</v>
       </c>
       <c r="J55">
+        <v>4.9991300000000001</v>
+      </c>
+      <c r="K55">
+        <v>6.0481699999999999E-2</v>
+      </c>
+      <c r="L55">
+        <v>1.0907070000000001</v>
+      </c>
+      <c r="M55">
         <v>56984</v>
       </c>
-      <c r="K55">
+      <c r="N55">
         <v>2.34</v>
       </c>
-      <c r="L55">
+      <c r="O55">
         <v>49</v>
       </c>
-      <c r="M55">
+      <c r="P55">
         <v>4178.3999999999996</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:16">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -2677,19 +3106,28 @@
         <v>76.7</v>
       </c>
       <c r="J56">
+        <v>4.6876329999999999</v>
+      </c>
+      <c r="K56">
+        <v>6.0522100000000002E-2</v>
+      </c>
+      <c r="L56">
+        <v>0.8247331</v>
+      </c>
+      <c r="M56">
         <v>58661</v>
       </c>
-      <c r="K56">
+      <c r="N56">
         <v>2.29</v>
       </c>
-      <c r="L56">
+      <c r="O56">
         <v>49</v>
       </c>
-      <c r="M56">
+      <c r="P56">
         <v>4555.5</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:16">
       <c r="A57" t="s">
         <v>16</v>
       </c>
@@ -2718,19 +3156,28 @@
         <v>85.8</v>
       </c>
       <c r="J57">
+        <v>4.7775270000000001</v>
+      </c>
+      <c r="K57">
+        <v>5.9826299999999999E-2</v>
+      </c>
+      <c r="L57">
+        <v>0.86638970000000004</v>
+      </c>
+      <c r="M57">
         <v>57664</v>
       </c>
-      <c r="K57">
+      <c r="N57">
         <v>2.25</v>
       </c>
-      <c r="L57">
+      <c r="O57">
         <v>49</v>
       </c>
-      <c r="M57">
+      <c r="P57">
         <v>4518.6000000000004</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:16">
       <c r="A58" t="s">
         <v>16</v>
       </c>
@@ -2758,17 +3205,17 @@
       <c r="I58">
         <v>100.8</v>
       </c>
-      <c r="J58">
+      <c r="M58">
         <v>60941</v>
       </c>
-      <c r="L58">
+      <c r="O58">
         <v>49</v>
       </c>
-      <c r="M58">
+      <c r="P58">
         <v>3867.3</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:16">
       <c r="A59" t="s">
         <v>16</v>
       </c>
@@ -2797,19 +3244,28 @@
         <v>104.3</v>
       </c>
       <c r="J59">
+        <v>4.2741759999999998</v>
+      </c>
+      <c r="K59">
+        <v>5.7880099999999997E-2</v>
+      </c>
+      <c r="L59">
+        <v>0.97596039999999995</v>
+      </c>
+      <c r="M59">
         <v>62453</v>
       </c>
-      <c r="K59">
+      <c r="N59">
         <v>2.33</v>
       </c>
-      <c r="L59">
+      <c r="O59">
         <v>50</v>
       </c>
-      <c r="M59">
+      <c r="P59">
         <v>4341.3999999999996</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:16">
       <c r="A60" t="s">
         <v>16</v>
       </c>
@@ -2838,19 +3294,28 @@
         <v>118.8</v>
       </c>
       <c r="J60">
+        <v>3.7697419999999999</v>
+      </c>
+      <c r="K60">
+        <v>5.8525599999999997E-2</v>
+      </c>
+      <c r="L60">
+        <v>0.6060856</v>
+      </c>
+      <c r="M60">
         <v>65687</v>
       </c>
-      <c r="K60">
+      <c r="N60">
         <v>2.29</v>
       </c>
-      <c r="L60">
+      <c r="O60">
         <v>50</v>
       </c>
-      <c r="M60">
+      <c r="P60">
         <v>4291.3999999999996</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:16">
       <c r="A61" t="s">
         <v>16</v>
       </c>
@@ -2879,19 +3344,28 @@
         <v>97.7</v>
       </c>
       <c r="J61">
+        <v>4.4153659999999997</v>
+      </c>
+      <c r="K61">
+        <v>5.8137000000000001E-2</v>
+      </c>
+      <c r="L61">
+        <v>0.88641760000000003</v>
+      </c>
+      <c r="M61">
         <v>65505</v>
       </c>
-      <c r="K61">
+      <c r="N61">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L61">
+      <c r="O61">
         <v>50</v>
       </c>
-      <c r="M61">
+      <c r="P61">
         <v>4366.3</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:16">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -2914,19 +3388,25 @@
         <v>56</v>
       </c>
       <c r="J62">
+        <v>5.0279319999999998</v>
+      </c>
+      <c r="K62">
+        <v>1.0161469999999999</v>
+      </c>
+      <c r="M62">
         <v>63973</v>
       </c>
-      <c r="K62">
+      <c r="N62">
         <v>2.76</v>
       </c>
-      <c r="L62">
+      <c r="O62">
         <v>47</v>
       </c>
-      <c r="M62">
+      <c r="P62">
         <v>4781.3999999999996</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:16">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -2949,19 +3429,25 @@
         <v>51.3</v>
       </c>
       <c r="J63">
+        <v>5.2150780000000001</v>
+      </c>
+      <c r="K63">
+        <v>1.0265690000000001</v>
+      </c>
+      <c r="M63">
         <v>62100</v>
       </c>
-      <c r="K63">
+      <c r="N63">
         <v>2.5499999999999998</v>
       </c>
-      <c r="L63">
+      <c r="O63">
         <v>46</v>
       </c>
-      <c r="M63">
+      <c r="P63">
         <v>3824.9</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:16">
       <c r="A64" t="s">
         <v>17</v>
       </c>
@@ -2984,19 +3470,25 @@
         <v>56.2</v>
       </c>
       <c r="J64">
+        <v>5.0750019999999996</v>
+      </c>
+      <c r="K64">
+        <v>0.95162020000000003</v>
+      </c>
+      <c r="M64">
         <v>64643</v>
       </c>
-      <c r="K64">
+      <c r="N64">
         <v>2.34</v>
       </c>
-      <c r="L64">
+      <c r="O64">
         <v>48</v>
       </c>
-      <c r="M64">
+      <c r="P64">
         <v>4136.8</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:16">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -3019,19 +3511,25 @@
         <v>69</v>
       </c>
       <c r="J65">
+        <v>5.0085870000000003</v>
+      </c>
+      <c r="K65">
+        <v>1.0014430000000001</v>
+      </c>
+      <c r="M65">
         <v>71604</v>
       </c>
-      <c r="K65">
+      <c r="N65">
         <v>2.52</v>
       </c>
-      <c r="L65">
+      <c r="O65">
         <v>47</v>
       </c>
-      <c r="M65">
+      <c r="P65">
         <v>4543.3999999999996</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:16">
       <c r="A66" t="s">
         <v>17</v>
       </c>
@@ -3054,19 +3552,25 @@
         <v>66</v>
       </c>
       <c r="J66">
+        <v>4.8907439999999998</v>
+      </c>
+      <c r="K66">
+        <v>0.99523470000000003</v>
+      </c>
+      <c r="M66">
         <v>91323</v>
       </c>
-      <c r="K66">
+      <c r="N66">
         <v>2.48</v>
       </c>
-      <c r="L66">
+      <c r="O66">
         <v>50</v>
       </c>
-      <c r="M66">
+      <c r="P66">
         <v>4115</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:16">
       <c r="A67" t="s">
         <v>17</v>
       </c>
@@ -3089,19 +3593,25 @@
         <v>65.900000000000006</v>
       </c>
       <c r="J67">
+        <v>5.2205349999999999</v>
+      </c>
+      <c r="K67">
+        <v>0.94429030000000003</v>
+      </c>
+      <c r="M67">
         <v>79211</v>
       </c>
-      <c r="K67">
+      <c r="N67">
         <v>2.4700000000000002</v>
       </c>
-      <c r="L67">
+      <c r="O67">
         <v>49</v>
       </c>
-      <c r="M67">
+      <c r="P67">
         <v>4380.5</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:16">
       <c r="A68" t="s">
         <v>17</v>
       </c>
@@ -3124,19 +3634,25 @@
         <v>70.2</v>
       </c>
       <c r="J68">
+        <v>4.9590529999999999</v>
+      </c>
+      <c r="K68">
+        <v>0.94517819999999997</v>
+      </c>
+      <c r="M68">
         <v>79564</v>
       </c>
-      <c r="K68">
+      <c r="N68">
         <v>2.4300000000000002</v>
       </c>
-      <c r="L68">
+      <c r="O68">
         <v>48</v>
       </c>
-      <c r="M68">
+      <c r="P68">
         <v>4714.7</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:16">
       <c r="A69" t="s">
         <v>17</v>
       </c>
@@ -3159,19 +3675,25 @@
         <v>77.2</v>
       </c>
       <c r="J69">
+        <v>4.8691050000000002</v>
+      </c>
+      <c r="K69">
+        <v>0.93617969999999995</v>
+      </c>
+      <c r="M69">
         <v>81217</v>
       </c>
-      <c r="K69">
+      <c r="N69">
         <v>2.61</v>
       </c>
-      <c r="L69">
+      <c r="O69">
         <v>50</v>
       </c>
-      <c r="M69">
+      <c r="P69">
         <v>4637.1000000000004</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:16">
       <c r="A70" t="s">
         <v>17</v>
       </c>
@@ -3194,19 +3716,25 @@
         <v>92.2</v>
       </c>
       <c r="J70">
+        <v>4.2251640000000004</v>
+      </c>
+      <c r="K70">
+        <v>0.85591130000000004</v>
+      </c>
+      <c r="M70">
         <v>83137</v>
       </c>
-      <c r="K70">
+      <c r="N70">
         <v>2.4900000000000002</v>
       </c>
-      <c r="L70">
+      <c r="O70">
         <v>49</v>
       </c>
-      <c r="M70">
+      <c r="P70">
         <v>4034.7</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:16">
       <c r="A71" t="s">
         <v>18</v>
       </c>
@@ -3235,19 +3763,25 @@
         <v>61.3</v>
       </c>
       <c r="J71">
+        <v>5.4036949999999999</v>
+      </c>
+      <c r="K71">
+        <v>5.9801199999999999E-2</v>
+      </c>
+      <c r="M71">
         <v>51204</v>
       </c>
-      <c r="K71">
+      <c r="N71">
         <v>2.46</v>
       </c>
-      <c r="L71">
+      <c r="O71">
         <v>48</v>
       </c>
-      <c r="M71">
+      <c r="P71">
         <v>5318.3</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:16">
       <c r="A72" t="s">
         <v>18</v>
       </c>
@@ -3276,19 +3810,25 @@
         <v>55.2</v>
       </c>
       <c r="J72">
+        <v>5.5350520000000003</v>
+      </c>
+      <c r="K72">
+        <v>5.9130299999999997E-2</v>
+      </c>
+      <c r="M72">
         <v>47103</v>
       </c>
-      <c r="K72">
+      <c r="N72">
         <v>2.2200000000000002</v>
       </c>
-      <c r="L72">
+      <c r="O72">
         <v>49</v>
       </c>
-      <c r="M72">
+      <c r="P72">
         <v>4481.7</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:16">
       <c r="A73" t="s">
         <v>18</v>
       </c>
@@ -3317,19 +3857,25 @@
         <v>61.5</v>
       </c>
       <c r="J73">
+        <v>5.4987750000000002</v>
+      </c>
+      <c r="K73">
+        <v>5.7404299999999998E-2</v>
+      </c>
+      <c r="M73">
         <v>48898</v>
       </c>
-      <c r="K73">
+      <c r="N73">
         <v>2.23</v>
       </c>
-      <c r="L73">
+      <c r="O73">
         <v>47</v>
       </c>
-      <c r="M73">
+      <c r="P73">
         <v>4592.3</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:16">
       <c r="A74" t="s">
         <v>18</v>
       </c>
@@ -3358,19 +3904,25 @@
         <v>71.900000000000006</v>
       </c>
       <c r="J74">
+        <v>5.3279860000000001</v>
+      </c>
+      <c r="K74">
+        <v>5.8266699999999998E-2</v>
+      </c>
+      <c r="M74">
         <v>43740</v>
       </c>
-      <c r="K74">
+      <c r="N74">
         <v>2.2599999999999998</v>
       </c>
-      <c r="L74">
+      <c r="O74">
         <v>50</v>
       </c>
-      <c r="M74">
+      <c r="P74">
         <v>5006.8999999999996</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:16">
       <c r="A75" t="s">
         <v>18</v>
       </c>
@@ -3399,19 +3951,25 @@
         <v>74</v>
       </c>
       <c r="J75">
+        <v>4.9542830000000002</v>
+      </c>
+      <c r="K75">
+        <v>5.9075700000000002E-2</v>
+      </c>
+      <c r="M75">
         <v>54970</v>
       </c>
-      <c r="K75">
+      <c r="N75">
         <v>2.3199999999999998</v>
       </c>
-      <c r="L75">
+      <c r="O75">
         <v>51</v>
       </c>
-      <c r="M75">
+      <c r="P75">
         <v>4728.6000000000004</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:16">
       <c r="A76" t="s">
         <v>18</v>
       </c>
@@ -3440,19 +3998,25 @@
         <v>72.099999999999994</v>
       </c>
       <c r="J76">
+        <v>5.3244249999999997</v>
+      </c>
+      <c r="K76">
+        <v>5.8376299999999999E-2</v>
+      </c>
+      <c r="M76">
         <v>49742</v>
       </c>
-      <c r="K76">
+      <c r="N76">
         <v>2.15</v>
       </c>
-      <c r="L76">
+      <c r="O76">
         <v>52</v>
       </c>
-      <c r="M76">
+      <c r="P76">
         <v>5041.7</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:16">
       <c r="A77" t="s">
         <v>18</v>
       </c>
@@ -3481,19 +4045,25 @@
         <v>77.8</v>
       </c>
       <c r="J77">
+        <v>5.2264549999999996</v>
+      </c>
+      <c r="K77">
+        <v>5.8926600000000003E-2</v>
+      </c>
+      <c r="M77">
         <v>55353</v>
       </c>
-      <c r="K77">
+      <c r="N77">
         <v>2.2200000000000002</v>
       </c>
-      <c r="L77">
+      <c r="O77">
         <v>51</v>
       </c>
-      <c r="M77">
+      <c r="P77">
         <v>5237.3</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:16">
       <c r="A78" t="s">
         <v>18</v>
       </c>
@@ -3519,19 +4089,25 @@
         <v>87</v>
       </c>
       <c r="J78">
+        <v>5.3131440000000003</v>
+      </c>
+      <c r="K78">
+        <v>5.7324199999999999E-2</v>
+      </c>
+      <c r="M78">
         <v>59742</v>
       </c>
-      <c r="K78">
+      <c r="N78">
         <v>2.2400000000000002</v>
       </c>
-      <c r="L78">
+      <c r="O78">
         <v>50</v>
       </c>
-      <c r="M78">
+      <c r="P78">
         <v>5224.1000000000004</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:16">
       <c r="A79" t="s">
         <v>18</v>
       </c>
@@ -3557,19 +4133,25 @@
         <v>102.4</v>
       </c>
       <c r="J79">
+        <v>4.75868</v>
+      </c>
+      <c r="K79">
+        <v>5.6818E-2</v>
+      </c>
+      <c r="M79">
         <v>56711</v>
       </c>
-      <c r="K79">
+      <c r="N79">
         <v>2.25</v>
       </c>
-      <c r="L79">
+      <c r="O79">
         <v>51</v>
       </c>
-      <c r="M79">
+      <c r="P79">
         <v>4497.3999999999996</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:16">
       <c r="A80" t="s">
         <v>18</v>
       </c>
@@ -3595,19 +4177,25 @@
         <v>106.4</v>
       </c>
       <c r="J80">
+        <v>4.8963510000000001</v>
+      </c>
+      <c r="K80">
+        <v>5.5955499999999998E-2</v>
+      </c>
+      <c r="M80">
         <v>67319</v>
       </c>
-      <c r="K80">
+      <c r="N80">
         <v>2.2599999999999998</v>
       </c>
-      <c r="L80">
+      <c r="O80">
         <v>49</v>
       </c>
-      <c r="M80">
+      <c r="P80">
         <v>5022.3</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:16">
       <c r="A81" t="s">
         <v>19</v>
       </c>
@@ -3636,19 +4224,28 @@
         <v>60</v>
       </c>
       <c r="J81">
+        <v>5.3422239999999999</v>
+      </c>
+      <c r="K81">
+        <v>6.3890079999999996</v>
+      </c>
+      <c r="L81">
+        <v>6.5894620000000002</v>
+      </c>
+      <c r="M81">
         <v>52866</v>
       </c>
-      <c r="K81">
+      <c r="N81">
         <v>2.66</v>
       </c>
-      <c r="L81">
+      <c r="O81">
         <v>47</v>
       </c>
-      <c r="M81">
+      <c r="P81">
         <v>5618.2</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:16">
       <c r="A82" t="s">
         <v>19</v>
       </c>
@@ -3677,19 +4274,28 @@
         <v>55.6</v>
       </c>
       <c r="J82">
+        <v>5.5975109999999999</v>
+      </c>
+      <c r="K82">
+        <v>6.373564</v>
+      </c>
+      <c r="L82">
+        <v>5.9759820000000001</v>
+      </c>
+      <c r="M82">
         <v>54825</v>
       </c>
-      <c r="K82">
+      <c r="N82">
         <v>2.6</v>
       </c>
-      <c r="L82">
+      <c r="O82">
         <v>46</v>
       </c>
-      <c r="M82">
+      <c r="P82">
         <v>5263.3</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:16">
       <c r="A83" t="s">
         <v>19</v>
       </c>
@@ -3718,19 +4324,28 @@
         <v>60.5</v>
       </c>
       <c r="J83">
+        <v>5.5555580000000004</v>
+      </c>
+      <c r="K83">
+        <v>6.0883380000000002</v>
+      </c>
+      <c r="L83">
+        <v>5.6906460000000001</v>
+      </c>
+      <c r="M83">
         <v>56655</v>
       </c>
-      <c r="K83">
+      <c r="N83">
         <v>2.56</v>
       </c>
-      <c r="L83">
+      <c r="O83">
         <v>51</v>
       </c>
-      <c r="M83">
+      <c r="P83">
         <v>5288.3</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:16">
       <c r="A84" t="s">
         <v>19</v>
       </c>
@@ -3759,19 +4374,28 @@
         <v>71.7</v>
       </c>
       <c r="J84">
+        <v>5.5293210000000004</v>
+      </c>
+      <c r="K84">
+        <v>6.5618939999999997</v>
+      </c>
+      <c r="L84">
+        <v>5.7034310000000001</v>
+      </c>
+      <c r="M84">
         <v>65341</v>
       </c>
-      <c r="K84">
+      <c r="N84">
         <v>2.68</v>
       </c>
-      <c r="L84">
+      <c r="O84">
         <v>47</v>
       </c>
-      <c r="M84">
+      <c r="P84">
         <v>5797</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:16">
       <c r="A85" t="s">
         <v>19</v>
       </c>
@@ -3800,19 +4424,28 @@
         <v>72.2</v>
       </c>
       <c r="J85">
+        <v>5.0102799999999998</v>
+      </c>
+      <c r="K85">
+        <v>6.6148020000000001</v>
+      </c>
+      <c r="L85">
+        <v>4.9101400000000002</v>
+      </c>
+      <c r="M85">
         <v>58300</v>
       </c>
-      <c r="K85">
+      <c r="N85">
         <v>2.56</v>
       </c>
-      <c r="L85">
+      <c r="O85">
         <v>47</v>
       </c>
-      <c r="M85">
+      <c r="P85">
         <v>5423.9</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:16">
       <c r="A86" t="s">
         <v>19</v>
       </c>
@@ -3841,19 +4474,28 @@
         <v>72.7</v>
       </c>
       <c r="J86">
+        <v>5.507098</v>
+      </c>
+      <c r="K86">
+        <v>6.689387</v>
+      </c>
+      <c r="L86">
+        <v>5.7684369999999996</v>
+      </c>
+      <c r="M86">
         <v>64960</v>
       </c>
-      <c r="K86">
+      <c r="N86">
         <v>2.5</v>
       </c>
-      <c r="L86">
+      <c r="O86">
         <v>47</v>
       </c>
-      <c r="M86">
+      <c r="P86">
         <v>5926.1</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:16">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -3882,19 +4524,28 @@
         <v>76</v>
       </c>
       <c r="J87">
+        <v>5.2480219999999997</v>
+      </c>
+      <c r="K87">
+        <v>6.591081</v>
+      </c>
+      <c r="L87">
+        <v>4.6927830000000004</v>
+      </c>
+      <c r="M87">
         <v>58990</v>
       </c>
-      <c r="K87">
+      <c r="N87">
         <v>2.38</v>
       </c>
-      <c r="L87">
+      <c r="O87">
         <v>48</v>
       </c>
-      <c r="M87">
+      <c r="P87">
         <v>5835.4</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:16">
       <c r="A88" t="s">
         <v>19</v>
       </c>
@@ -3923,19 +4574,28 @@
         <v>82.5</v>
       </c>
       <c r="J88">
+        <v>5.4010129999999998</v>
+      </c>
+      <c r="K88">
+        <v>6.5288180000000002</v>
+      </c>
+      <c r="L88">
+        <v>4.612279</v>
+      </c>
+      <c r="M88">
         <v>60578</v>
       </c>
-      <c r="K88">
+      <c r="N88">
         <v>2.39</v>
       </c>
-      <c r="L88">
+      <c r="O88">
         <v>49</v>
       </c>
-      <c r="M88">
+      <c r="P88">
         <v>5788.7</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:16">
       <c r="A89" t="s">
         <v>19</v>
       </c>
@@ -3964,19 +4624,28 @@
         <v>99.6</v>
       </c>
       <c r="J89">
+        <v>4.8427850000000001</v>
+      </c>
+      <c r="K89">
+        <v>6.799131</v>
+      </c>
+      <c r="L89">
+        <v>4.7240409999999997</v>
+      </c>
+      <c r="M89">
         <v>69671</v>
       </c>
-      <c r="K89">
+      <c r="N89">
         <v>2.57</v>
       </c>
-      <c r="L89">
+      <c r="O89">
         <v>48</v>
       </c>
-      <c r="M89">
+      <c r="P89">
         <v>5207.3</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:16">
       <c r="A90" t="s">
         <v>19</v>
       </c>
@@ -4005,19 +4674,28 @@
         <v>104.7</v>
       </c>
       <c r="J90">
+        <v>4.9581340000000003</v>
+      </c>
+      <c r="K90">
+        <v>6.7284509999999997</v>
+      </c>
+      <c r="L90">
+        <v>4.8644239999999996</v>
+      </c>
+      <c r="M90">
         <v>73610</v>
       </c>
-      <c r="K90">
+      <c r="N90">
         <v>2.48</v>
       </c>
-      <c r="L90">
+      <c r="O90">
         <v>49</v>
       </c>
-      <c r="M90">
+      <c r="P90">
         <v>5600</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:16">
       <c r="A91" t="s">
         <v>19</v>
       </c>
@@ -4046,19 +4724,25 @@
         <v>117.3</v>
       </c>
       <c r="J91">
+        <v>4.6852689999999999</v>
+      </c>
+      <c r="K91">
+        <v>6.9438709999999997</v>
+      </c>
+      <c r="M91">
         <v>81480</v>
       </c>
-      <c r="K91">
+      <c r="N91">
         <v>2.58</v>
       </c>
-      <c r="L91">
+      <c r="O91">
         <v>50</v>
       </c>
-      <c r="M91">
+      <c r="P91">
         <v>5938.8</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:16">
       <c r="A92" t="s">
         <v>19</v>
       </c>
@@ -4087,19 +4771,28 @@
         <v>97.1</v>
       </c>
       <c r="J92">
+        <v>4.95336</v>
+      </c>
+      <c r="K92">
+        <v>6.6054259999999996</v>
+      </c>
+      <c r="L92">
+        <v>4.7232370000000001</v>
+      </c>
+      <c r="M92">
         <v>73278</v>
       </c>
-      <c r="K92">
+      <c r="N92">
         <v>2.2799999999999998</v>
       </c>
-      <c r="L92">
+      <c r="O92">
         <v>48</v>
       </c>
-      <c r="M92">
+      <c r="P92">
         <v>6202</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:16">
       <c r="A93" t="s">
         <v>20</v>
       </c>
@@ -4125,19 +4818,25 @@
         <v>60.2</v>
       </c>
       <c r="J93">
+        <v>6.2532579999999998</v>
+      </c>
+      <c r="K93">
+        <v>11.89242</v>
+      </c>
+      <c r="M93">
         <v>49186</v>
       </c>
-      <c r="K93">
+      <c r="N93">
         <v>2.62</v>
       </c>
-      <c r="L93">
+      <c r="O93">
         <v>50</v>
       </c>
-      <c r="M93">
+      <c r="P93">
         <v>5096.3</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:16">
       <c r="A94" t="s">
         <v>20</v>
       </c>
@@ -4163,19 +4862,25 @@
         <v>55.4</v>
       </c>
       <c r="J94">
+        <v>6.6381639999999997</v>
+      </c>
+      <c r="K94">
+        <v>11.79519</v>
+      </c>
+      <c r="M94">
         <v>45340</v>
       </c>
-      <c r="K94">
+      <c r="N94">
         <v>2.4</v>
       </c>
-      <c r="L94">
+      <c r="O94">
         <v>51</v>
       </c>
-      <c r="M94">
+      <c r="P94">
         <v>4381.7</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:16">
       <c r="A95" t="s">
         <v>20</v>
       </c>
@@ -4201,19 +4906,25 @@
         <v>59.2</v>
       </c>
       <c r="J95">
+        <v>6.7103869999999999</v>
+      </c>
+      <c r="K95">
+        <v>11.617190000000001</v>
+      </c>
+      <c r="M95">
         <v>47012</v>
       </c>
-      <c r="K95">
+      <c r="N95">
         <v>2.46</v>
       </c>
-      <c r="L95">
+      <c r="O95">
         <v>50</v>
       </c>
-      <c r="M95">
+      <c r="P95">
         <v>4182.8999999999996</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:16">
       <c r="A96" t="s">
         <v>20</v>
       </c>
@@ -4239,19 +4950,25 @@
         <v>73.3</v>
       </c>
       <c r="J96">
+        <v>6.5312609999999998</v>
+      </c>
+      <c r="K96">
+        <v>11.73048</v>
+      </c>
+      <c r="M96">
         <v>54452</v>
       </c>
-      <c r="K96">
+      <c r="N96">
         <v>2.5299999999999998</v>
       </c>
-      <c r="L96">
+      <c r="O96">
         <v>51</v>
       </c>
-      <c r="M96">
+      <c r="P96">
         <v>4682.8</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:16">
       <c r="A97" t="s">
         <v>20</v>
       </c>
@@ -4277,19 +4994,25 @@
         <v>70</v>
       </c>
       <c r="J97">
+        <v>6.3014159999999997</v>
+      </c>
+      <c r="K97">
+        <v>11.76291</v>
+      </c>
+      <c r="M97">
         <v>48747</v>
       </c>
-      <c r="K97">
+      <c r="N97">
         <v>2.54</v>
       </c>
-      <c r="L97">
+      <c r="O97">
         <v>49</v>
       </c>
-      <c r="M97">
+      <c r="P97">
         <v>4644.2</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:16">
       <c r="A98" t="s">
         <v>20</v>
       </c>
@@ -4315,19 +5038,25 @@
         <v>72.5</v>
       </c>
       <c r="J98">
+        <v>6.6315540000000004</v>
+      </c>
+      <c r="K98">
+        <v>11.548170000000001</v>
+      </c>
+      <c r="M98">
         <v>50517</v>
       </c>
-      <c r="K98">
+      <c r="N98">
         <v>2.3199999999999998</v>
       </c>
-      <c r="L98">
+      <c r="O98">
         <v>52</v>
       </c>
-      <c r="M98">
+      <c r="P98">
         <v>4734.1000000000004</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:16">
       <c r="A99" t="s">
         <v>20</v>
       </c>
@@ -4353,19 +5082,25 @@
         <v>78.8</v>
       </c>
       <c r="J99">
+        <v>6.2037399999999998</v>
+      </c>
+      <c r="K99">
+        <v>11.61552</v>
+      </c>
+      <c r="M99">
         <v>51060</v>
       </c>
-      <c r="K99">
+      <c r="N99">
         <v>2.39</v>
       </c>
-      <c r="L99">
+      <c r="O99">
         <v>52</v>
       </c>
-      <c r="M99">
+      <c r="P99">
         <v>4904.6000000000004</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:16">
       <c r="A100" t="s">
         <v>20</v>
       </c>
@@ -4391,19 +5126,25 @@
         <v>88</v>
       </c>
       <c r="J100">
+        <v>6.3954779999999998</v>
+      </c>
+      <c r="K100">
+        <v>11.757149999999999</v>
+      </c>
+      <c r="M100">
         <v>57126</v>
       </c>
-      <c r="K100">
+      <c r="N100">
         <v>2.44</v>
       </c>
-      <c r="L100">
+      <c r="O100">
         <v>50</v>
       </c>
-      <c r="M100">
+      <c r="P100">
         <v>5045.1000000000004</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:16">
       <c r="A101" t="s">
         <v>20</v>
       </c>
@@ -4429,19 +5170,25 @@
         <v>102.2</v>
       </c>
       <c r="J101">
+        <v>5.686032</v>
+      </c>
+      <c r="K101">
+        <v>11.28403</v>
+      </c>
+      <c r="M101">
         <v>56055</v>
       </c>
-      <c r="K101">
+      <c r="N101">
         <v>2.36</v>
       </c>
-      <c r="L101">
+      <c r="O101">
         <v>50</v>
       </c>
-      <c r="M101">
+      <c r="P101">
         <v>4155.2</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:16">
       <c r="A102" t="s">
         <v>20</v>
       </c>
@@ -4467,19 +5214,25 @@
         <v>101.4</v>
       </c>
       <c r="J102">
+        <v>6.2873169999999998</v>
+      </c>
+      <c r="K102">
+        <v>11.24418</v>
+      </c>
+      <c r="M102">
         <v>69712</v>
       </c>
-      <c r="K102">
+      <c r="N102">
         <v>2.4500000000000002</v>
       </c>
-      <c r="L102">
+      <c r="O102">
         <v>52</v>
       </c>
-      <c r="M102">
+      <c r="P102">
         <v>4845.6000000000004</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:16">
       <c r="A103" t="s">
         <v>20</v>
       </c>
@@ -4505,19 +5258,25 @@
         <v>113.7</v>
       </c>
       <c r="J103">
+        <v>5.815652</v>
+      </c>
+      <c r="K103">
+        <v>11.30058</v>
+      </c>
+      <c r="M103">
         <v>76431</v>
       </c>
-      <c r="K103">
+      <c r="N103">
         <v>2.56</v>
       </c>
-      <c r="L103">
+      <c r="O103">
         <v>52</v>
       </c>
-      <c r="M103">
+      <c r="P103">
         <v>4555.7</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:16">
       <c r="A104" t="s">
         <v>20</v>
       </c>
@@ -4543,19 +5302,25 @@
         <v>91.4</v>
       </c>
       <c r="J104">
+        <v>6.3127779999999998</v>
+      </c>
+      <c r="K104">
+        <v>11.10073</v>
+      </c>
+      <c r="M104">
         <v>69725</v>
       </c>
-      <c r="K104">
+      <c r="N104">
         <v>2.3199999999999998</v>
       </c>
-      <c r="L104">
+      <c r="O104">
         <v>54</v>
       </c>
-      <c r="M104">
+      <c r="P104">
         <v>4791</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:16">
       <c r="A105" t="s">
         <v>21</v>
       </c>
@@ -4584,19 +5349,28 @@
         <v>60.6</v>
       </c>
       <c r="J105">
+        <v>5.4150799999999997</v>
+      </c>
+      <c r="K105">
+        <v>8.1376729999999995</v>
+      </c>
+      <c r="L105">
+        <v>5.8157909999999999</v>
+      </c>
+      <c r="M105">
         <v>45690</v>
       </c>
-      <c r="K105">
+      <c r="N105">
         <v>2.52</v>
       </c>
-      <c r="L105">
+      <c r="O105">
         <v>47</v>
       </c>
-      <c r="M105">
+      <c r="P105">
         <v>5732.4</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:16">
       <c r="A106" t="s">
         <v>21</v>
       </c>
@@ -4625,19 +5399,28 @@
         <v>56.7</v>
       </c>
       <c r="J106">
+        <v>5.5265310000000003</v>
+      </c>
+      <c r="K106">
+        <v>8.1247910000000001</v>
+      </c>
+      <c r="L106">
+        <v>5.4316839999999997</v>
+      </c>
+      <c r="M106">
         <v>47307</v>
       </c>
-      <c r="K106">
+      <c r="N106">
         <v>2.4</v>
       </c>
-      <c r="L106">
+      <c r="O106">
         <v>48</v>
       </c>
-      <c r="M106">
+      <c r="P106">
         <v>5425.3</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:16">
       <c r="A107" t="s">
         <v>21</v>
       </c>
@@ -4666,19 +5449,28 @@
         <v>59.8</v>
       </c>
       <c r="J107">
+        <v>5.737476</v>
+      </c>
+      <c r="K107">
+        <v>7.763496</v>
+      </c>
+      <c r="L107">
+        <v>5.3762530000000002</v>
+      </c>
+      <c r="M107">
         <v>50053</v>
       </c>
-      <c r="K107">
+      <c r="N107">
         <v>2.52</v>
       </c>
-      <c r="L107">
+      <c r="O107">
         <v>48</v>
       </c>
-      <c r="M107">
+      <c r="P107">
         <v>5388.6</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:16">
       <c r="A108" t="s">
         <v>21</v>
       </c>
@@ -4707,19 +5499,28 @@
         <v>71.7</v>
       </c>
       <c r="J108">
+        <v>5.6200270000000003</v>
+      </c>
+      <c r="K108">
+        <v>8.1128820000000008</v>
+      </c>
+      <c r="L108">
+        <v>5.3619690000000002</v>
+      </c>
+      <c r="M108">
         <v>52280</v>
       </c>
-      <c r="K108">
+      <c r="N108">
         <v>2.6</v>
       </c>
-      <c r="L108">
+      <c r="O108">
         <v>46</v>
       </c>
-      <c r="M108">
+      <c r="P108">
         <v>5906.8</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:16">
       <c r="A109" t="s">
         <v>21</v>
       </c>
@@ -4748,19 +5549,28 @@
         <v>72.2</v>
       </c>
       <c r="J109">
+        <v>5.2215049999999996</v>
+      </c>
+      <c r="K109">
+        <v>8.1511370000000003</v>
+      </c>
+      <c r="L109">
+        <v>4.7731219999999999</v>
+      </c>
+      <c r="M109">
         <v>58861</v>
       </c>
-      <c r="K109">
+      <c r="N109">
         <v>2.71</v>
       </c>
-      <c r="L109">
+      <c r="O109">
         <v>49</v>
       </c>
-      <c r="M109">
+      <c r="P109">
         <v>5357.6</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:16">
       <c r="A110" t="s">
         <v>21</v>
       </c>
@@ -4789,19 +5599,28 @@
         <v>73</v>
       </c>
       <c r="J110">
+        <v>5.598535</v>
+      </c>
+      <c r="K110">
+        <v>7.7366970000000004</v>
+      </c>
+      <c r="L110">
+        <v>5.2632880000000002</v>
+      </c>
+      <c r="M110">
         <v>58914</v>
       </c>
-      <c r="K110">
+      <c r="N110">
         <v>2.58</v>
       </c>
-      <c r="L110">
+      <c r="O110">
         <v>47</v>
       </c>
-      <c r="M110">
+      <c r="P110">
         <v>6045.1</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:16">
       <c r="A111" t="s">
         <v>21</v>
       </c>
@@ -4830,19 +5649,28 @@
         <v>75.900000000000006</v>
       </c>
       <c r="J111">
+        <v>5.3697499999999998</v>
+      </c>
+      <c r="K111">
+        <v>7.9740599999999997</v>
+      </c>
+      <c r="L111">
+        <v>4.8675670000000002</v>
+      </c>
+      <c r="M111">
         <v>57162</v>
       </c>
-      <c r="K111">
+      <c r="N111">
         <v>2.5099999999999998</v>
       </c>
-      <c r="L111">
+      <c r="O111">
         <v>49</v>
       </c>
-      <c r="M111">
+      <c r="P111">
         <v>5790.1</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:16">
       <c r="A112" t="s">
         <v>21</v>
       </c>
@@ -4871,19 +5699,28 @@
         <v>82.8</v>
       </c>
       <c r="J112">
+        <v>5.4816549999999999</v>
+      </c>
+      <c r="K112">
+        <v>7.59945</v>
+      </c>
+      <c r="L112">
+        <v>4.8137410000000003</v>
+      </c>
+      <c r="M112">
         <v>60270</v>
       </c>
-      <c r="K112">
+      <c r="N112">
         <v>2.5099999999999998</v>
       </c>
-      <c r="L112">
+      <c r="O112">
         <v>48</v>
       </c>
-      <c r="M112">
+      <c r="P112">
         <v>5885.2</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:16">
       <c r="A113" t="s">
         <v>21</v>
       </c>
@@ -4912,19 +5749,28 @@
         <v>99.8</v>
       </c>
       <c r="J113">
+        <v>4.859019</v>
+      </c>
+      <c r="K113">
+        <v>7.205794</v>
+      </c>
+      <c r="L113">
+        <v>4.4232040000000001</v>
+      </c>
+      <c r="M113">
         <v>66755</v>
       </c>
-      <c r="K113">
+      <c r="N113">
         <v>2.4900000000000002</v>
       </c>
-      <c r="L113">
+      <c r="O113">
         <v>45</v>
       </c>
-      <c r="M113">
+      <c r="P113">
         <v>5479.4</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:16">
       <c r="A114" t="s">
         <v>21</v>
       </c>
@@ -4953,19 +5799,28 @@
         <v>104.5</v>
       </c>
       <c r="J114">
+        <v>5.0247919999999997</v>
+      </c>
+      <c r="K114">
+        <v>7.0901370000000004</v>
+      </c>
+      <c r="L114">
+        <v>4.702413</v>
+      </c>
+      <c r="M114">
         <v>70751</v>
       </c>
-      <c r="K114">
+      <c r="N114">
         <v>2.52</v>
       </c>
-      <c r="L114">
+      <c r="O114">
         <v>47</v>
       </c>
-      <c r="M114">
+      <c r="P114">
         <v>5703.3</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:16">
       <c r="A115" t="s">
         <v>21</v>
       </c>
@@ -4994,19 +5849,28 @@
         <v>117.3</v>
       </c>
       <c r="J115">
+        <v>4.6326609999999997</v>
+      </c>
+      <c r="K115">
+        <v>7.2551639999999997</v>
+      </c>
+      <c r="L115">
+        <v>4.6019870000000003</v>
+      </c>
+      <c r="M115">
         <v>78331</v>
       </c>
-      <c r="K115">
+      <c r="N115">
         <v>2.5299999999999998</v>
       </c>
-      <c r="L115">
+      <c r="O115">
         <v>47</v>
       </c>
-      <c r="M115">
+      <c r="P115">
         <v>5900.7</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:16">
       <c r="A116" t="s">
         <v>21</v>
       </c>
@@ -5035,19 +5899,25 @@
         <v>97</v>
       </c>
       <c r="J116">
+        <v>4.7802259999999999</v>
+      </c>
+      <c r="K116">
+        <v>6.8776109999999999</v>
+      </c>
+      <c r="M116">
         <v>81653</v>
       </c>
-      <c r="K116">
+      <c r="N116">
         <v>2.41</v>
       </c>
-      <c r="L116">
+      <c r="O116">
         <v>47</v>
       </c>
-      <c r="M116">
+      <c r="P116">
         <v>6285</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:16">
       <c r="A117" t="s">
         <v>22</v>
       </c>
@@ -5070,19 +5940,25 @@
         <v>67.7</v>
       </c>
       <c r="J117">
+        <v>4.934304</v>
+      </c>
+      <c r="K117">
+        <v>0.40002759999999998</v>
+      </c>
+      <c r="M117">
         <v>47081</v>
       </c>
-      <c r="K117">
+      <c r="N117">
         <v>2.69</v>
       </c>
-      <c r="L117">
+      <c r="O117">
         <v>47</v>
       </c>
-      <c r="M117">
+      <c r="P117">
         <v>5054.1000000000004</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:16">
       <c r="A118" t="s">
         <v>22</v>
       </c>
@@ -5105,19 +5981,25 @@
         <v>64.400000000000006</v>
       </c>
       <c r="J118">
+        <v>5.2627259999999998</v>
+      </c>
+      <c r="K118">
+        <v>0.40652559999999999</v>
+      </c>
+      <c r="M118">
         <v>54989</v>
       </c>
-      <c r="K118">
+      <c r="N118">
         <v>2.85</v>
       </c>
-      <c r="L118">
+      <c r="O118">
         <v>47</v>
       </c>
-      <c r="M118">
+      <c r="P118">
         <v>4568.3999999999996</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:16">
       <c r="A119" t="s">
         <v>22</v>
       </c>
@@ -5140,19 +6022,25 @@
         <v>66.2</v>
       </c>
       <c r="J119">
+        <v>5.2554780000000001</v>
+      </c>
+      <c r="K119">
+        <v>0.3973815</v>
+      </c>
+      <c r="M119">
         <v>51774</v>
       </c>
-      <c r="K119">
+      <c r="N119">
         <v>2.69</v>
       </c>
-      <c r="L119">
+      <c r="O119">
         <v>49</v>
       </c>
-      <c r="M119">
+      <c r="P119">
         <v>4187</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:16">
       <c r="A120" t="s">
         <v>22</v>
       </c>
@@ -5175,19 +6063,25 @@
         <v>83</v>
       </c>
       <c r="J120">
+        <v>4.7870799999999996</v>
+      </c>
+      <c r="K120">
+        <v>0.4036477</v>
+      </c>
+      <c r="M120">
         <v>53107</v>
       </c>
-      <c r="K120">
+      <c r="N120">
         <v>2.56</v>
       </c>
-      <c r="L120">
+      <c r="O120">
         <v>47</v>
       </c>
-      <c r="M120">
+      <c r="P120">
         <v>4474.3999999999996</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:16">
       <c r="A121" t="s">
         <v>22</v>
       </c>
@@ -5210,19 +6104,25 @@
         <v>79.099999999999994</v>
       </c>
       <c r="J121">
+        <v>4.7398670000000003</v>
+      </c>
+      <c r="K121">
+        <v>0.41236220000000001</v>
+      </c>
+      <c r="M121">
         <v>59744</v>
       </c>
-      <c r="K121">
+      <c r="N121">
         <v>2.68</v>
       </c>
-      <c r="L121">
+      <c r="O121">
         <v>48</v>
       </c>
-      <c r="M121">
+      <c r="P121">
         <v>4667.3999999999996</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:16">
       <c r="A122" t="s">
         <v>22</v>
       </c>
@@ -5245,19 +6145,25 @@
         <v>77</v>
       </c>
       <c r="J122">
+        <v>5.3649979999999999</v>
+      </c>
+      <c r="K122">
+        <v>0.40372160000000001</v>
+      </c>
+      <c r="M122">
         <v>61744</v>
       </c>
-      <c r="K122">
+      <c r="N122">
         <v>2.71</v>
       </c>
-      <c r="L122">
+      <c r="O122">
         <v>49</v>
       </c>
-      <c r="M122">
+      <c r="P122">
         <v>4866.6000000000004</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:16">
       <c r="A123" t="s">
         <v>22</v>
       </c>
@@ -5280,19 +6186,25 @@
         <v>82.8</v>
       </c>
       <c r="J123">
+        <v>4.8538670000000002</v>
+      </c>
+      <c r="K123">
+        <v>0.40288940000000001</v>
+      </c>
+      <c r="M123">
         <v>61522</v>
       </c>
-      <c r="K123">
+      <c r="N123">
         <v>2.58</v>
       </c>
-      <c r="L123">
+      <c r="O123">
         <v>48</v>
       </c>
-      <c r="M123">
+      <c r="P123">
         <v>4666.2</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:16">
       <c r="A124" t="s">
         <v>22</v>
       </c>
@@ -5315,19 +6227,25 @@
         <v>91.7</v>
       </c>
       <c r="J124">
+        <v>5.0168439999999999</v>
+      </c>
+      <c r="K124">
+        <v>0.3976131</v>
+      </c>
+      <c r="M124">
         <v>59676</v>
       </c>
-      <c r="K124">
+      <c r="N124">
         <v>2.57</v>
       </c>
-      <c r="L124">
+      <c r="O124">
         <v>48</v>
       </c>
-      <c r="M124">
+      <c r="P124">
         <v>4631.6000000000004</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:16">
       <c r="A125" t="s">
         <v>22</v>
       </c>
@@ -5350,19 +6268,25 @@
         <v>107.6</v>
       </c>
       <c r="J125">
+        <v>4.4494150000000001</v>
+      </c>
+      <c r="K125">
+        <v>0.38948060000000001</v>
+      </c>
+      <c r="M125">
         <v>67076</v>
       </c>
-      <c r="K125">
+      <c r="N125">
         <v>2.66</v>
       </c>
-      <c r="L125">
+      <c r="O125">
         <v>49</v>
       </c>
-      <c r="M125">
+      <c r="P125">
         <v>4276.1000000000004</v>
       </c>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:16">
       <c r="A126" t="s">
         <v>22</v>
       </c>
@@ -5385,19 +6309,25 @@
         <v>111</v>
       </c>
       <c r="J126">
+        <v>4.7564799999999998</v>
+      </c>
+      <c r="K126">
+        <v>0.3832546</v>
+      </c>
+      <c r="M126">
         <v>69539</v>
       </c>
-      <c r="K126">
+      <c r="N126">
         <v>2.48</v>
       </c>
-      <c r="L126">
+      <c r="O126">
         <v>49</v>
       </c>
-      <c r="M126">
+      <c r="P126">
         <v>4783.3</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:16">
       <c r="A127" t="s">
         <v>22</v>
       </c>
@@ -5420,19 +6350,25 @@
         <v>123.6</v>
       </c>
       <c r="J127">
+        <v>4.280837</v>
+      </c>
+      <c r="K127">
+        <v>0.38661469999999998</v>
+      </c>
+      <c r="M127">
         <v>73964</v>
       </c>
-      <c r="K127">
+      <c r="N127">
         <v>2.4500000000000002</v>
       </c>
-      <c r="L127">
+      <c r="O127">
         <v>48</v>
       </c>
-      <c r="M127">
+      <c r="P127">
         <v>4544.8999999999996</v>
       </c>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:16">
       <c r="A128" t="s">
         <v>22</v>
       </c>
@@ -5455,19 +6391,25 @@
         <v>102.3</v>
       </c>
       <c r="J128">
+        <v>4.7251589999999997</v>
+      </c>
+      <c r="K128">
+        <v>0.38570100000000002</v>
+      </c>
+      <c r="M128">
         <v>75127</v>
       </c>
-      <c r="K128">
+      <c r="N128">
         <v>2.5</v>
       </c>
-      <c r="L128">
+      <c r="O128">
         <v>47</v>
       </c>
-      <c r="M128">
+      <c r="P128">
         <v>4479.7</v>
       </c>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:16">
       <c r="A129" t="s">
         <v>23</v>
       </c>
@@ -5496,19 +6438,28 @@
         <v>56.1</v>
       </c>
       <c r="J129">
+        <v>5.2742959999999997</v>
+      </c>
+      <c r="K129">
+        <v>0.87001410000000001</v>
+      </c>
+      <c r="L129">
+        <v>5.0145140000000001</v>
+      </c>
+      <c r="M129">
         <v>63209</v>
       </c>
-      <c r="K129">
+      <c r="N129">
         <v>2.83</v>
       </c>
-      <c r="L129">
+      <c r="O129">
         <v>48</v>
       </c>
-      <c r="M129">
+      <c r="P129">
         <v>4033.9</v>
       </c>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:16">
       <c r="A130" t="s">
         <v>23</v>
       </c>
@@ -5537,19 +6488,28 @@
         <v>51.6</v>
       </c>
       <c r="J130">
+        <v>5.4785360000000001</v>
+      </c>
+      <c r="K130">
+        <v>0.85898140000000001</v>
+      </c>
+      <c r="L130">
+        <v>4.5256080000000001</v>
+      </c>
+      <c r="M130">
         <v>62955</v>
       </c>
-      <c r="K130">
+      <c r="N130">
         <v>2.75</v>
       </c>
-      <c r="L130">
+      <c r="O130">
         <v>48</v>
       </c>
-      <c r="M130">
+      <c r="P130">
         <v>3220.3</v>
       </c>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:16">
       <c r="A131" t="s">
         <v>23</v>
       </c>
@@ -5578,19 +6538,28 @@
         <v>57.5</v>
       </c>
       <c r="J131">
+        <v>5.4336359999999999</v>
+      </c>
+      <c r="K131">
+        <v>0.83071890000000004</v>
+      </c>
+      <c r="L131">
+        <v>4.7531889999999999</v>
+      </c>
+      <c r="M131">
         <v>67014</v>
       </c>
-      <c r="K131">
+      <c r="N131">
         <v>2.82</v>
       </c>
-      <c r="L131">
+      <c r="O131">
         <v>49</v>
       </c>
-      <c r="M131">
+      <c r="P131">
         <v>3539.4</v>
       </c>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:16">
       <c r="A132" t="s">
         <v>23</v>
       </c>
@@ -5619,19 +6588,28 @@
         <v>70.8</v>
       </c>
       <c r="J132">
+        <v>5.1676599999999997</v>
+      </c>
+      <c r="K132">
+        <v>0.84371149999999995</v>
+      </c>
+      <c r="L132">
+        <v>4.8052330000000003</v>
+      </c>
+      <c r="M132">
         <v>80194</v>
       </c>
-      <c r="K132">
+      <c r="N132">
         <v>2.99</v>
       </c>
-      <c r="L132">
+      <c r="O132">
         <v>48</v>
       </c>
-      <c r="M132">
+      <c r="P132">
         <v>3826.1</v>
       </c>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:16">
       <c r="A133" t="s">
         <v>23</v>
       </c>
@@ -5660,19 +6638,28 @@
         <v>67.8</v>
       </c>
       <c r="J133">
+        <v>4.9447409999999996</v>
+      </c>
+      <c r="K133">
+        <v>0.84086539999999999</v>
+      </c>
+      <c r="L133">
+        <v>3.6838510000000002</v>
+      </c>
+      <c r="M133">
         <v>71882</v>
       </c>
-      <c r="K133">
+      <c r="N133">
         <v>2.76</v>
       </c>
-      <c r="L133">
+      <c r="O133">
         <v>49</v>
       </c>
-      <c r="M133">
+      <c r="P133">
         <v>3420.4</v>
       </c>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:16">
       <c r="A134" t="s">
         <v>23</v>
       </c>
@@ -5701,19 +6688,28 @@
         <v>67.3</v>
       </c>
       <c r="J134">
+        <v>5.3065220000000002</v>
+      </c>
+      <c r="K134">
+        <v>0.77626379999999995</v>
+      </c>
+      <c r="L134">
+        <v>4.4716570000000004</v>
+      </c>
+      <c r="M134">
         <v>78099</v>
       </c>
-      <c r="K134">
+      <c r="N134">
         <v>2.86</v>
       </c>
-      <c r="L134">
+      <c r="O134">
         <v>49</v>
       </c>
-      <c r="M134">
+      <c r="P134">
         <v>3629.8</v>
       </c>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:16">
       <c r="A135" t="s">
         <v>23</v>
       </c>
@@ -5742,19 +6738,28 @@
         <v>70.900000000000006</v>
       </c>
       <c r="J135">
+        <v>5.1140299999999996</v>
+      </c>
+      <c r="K135">
+        <v>0.81197249999999999</v>
+      </c>
+      <c r="L135">
+        <v>4.1696109999999997</v>
+      </c>
+      <c r="M135">
         <v>82623</v>
       </c>
-      <c r="K135">
+      <c r="N135">
         <v>2.86</v>
       </c>
-      <c r="L135">
+      <c r="O135">
         <v>48</v>
       </c>
-      <c r="M135">
+      <c r="P135">
         <v>3981.5</v>
       </c>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:16">
       <c r="A136" t="s">
         <v>23</v>
       </c>
@@ -5783,19 +6788,28 @@
         <v>76.599999999999994</v>
       </c>
       <c r="J136">
+        <v>5.180841</v>
+      </c>
+      <c r="K136">
+        <v>0.75832129999999998</v>
+      </c>
+      <c r="L136">
+        <v>4.040286</v>
+      </c>
+      <c r="M136">
         <v>81404</v>
       </c>
-      <c r="K136">
+      <c r="N136">
         <v>2.74</v>
       </c>
-      <c r="L136">
+      <c r="O136">
         <v>49</v>
       </c>
-      <c r="M136">
+      <c r="P136">
         <v>3797.9</v>
       </c>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:16">
       <c r="A137" t="s">
         <v>23</v>
       </c>
@@ -5824,19 +6838,28 @@
         <v>93.4</v>
       </c>
       <c r="J137">
+        <v>4.4277939999999996</v>
+      </c>
+      <c r="K137">
+        <v>0.69529700000000005</v>
+      </c>
+      <c r="L137">
+        <v>3.7987540000000002</v>
+      </c>
+      <c r="M137">
         <v>83764</v>
       </c>
-      <c r="K137">
+      <c r="N137">
         <v>2.86</v>
       </c>
-      <c r="L137">
+      <c r="O137">
         <v>48</v>
       </c>
-      <c r="M137">
+      <c r="P137">
         <v>3378.5</v>
       </c>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:16">
       <c r="A138" t="s">
         <v>23</v>
       </c>
@@ -5865,19 +6888,28 @@
         <v>97.4</v>
       </c>
       <c r="J138">
+        <v>4.6160110000000003</v>
+      </c>
+      <c r="K138">
+        <v>0.68032780000000004</v>
+      </c>
+      <c r="L138">
+        <v>4.0636760000000001</v>
+      </c>
+      <c r="M138">
         <v>92612</v>
       </c>
-      <c r="K138">
+      <c r="N138">
         <v>2.75</v>
       </c>
-      <c r="L138">
+      <c r="O138">
         <v>49</v>
       </c>
-      <c r="M138">
+      <c r="P138">
         <v>3719.4</v>
       </c>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:16">
       <c r="A139" t="s">
         <v>23</v>
       </c>
@@ -5906,19 +6938,28 @@
         <v>110.2</v>
       </c>
       <c r="J139">
+        <v>4.1329099999999999</v>
+      </c>
+      <c r="K139">
+        <v>0.72891119999999998</v>
+      </c>
+      <c r="L139">
+        <v>4.7206530000000004</v>
+      </c>
+      <c r="M139">
         <v>88512</v>
       </c>
-      <c r="K139">
+      <c r="N139">
         <v>2.84</v>
       </c>
-      <c r="L139">
+      <c r="O139">
         <v>50</v>
       </c>
-      <c r="M139">
+      <c r="P139">
         <v>3836</v>
       </c>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:16">
       <c r="A140" t="s">
         <v>23</v>
       </c>
@@ -5947,19 +6988,28 @@
         <v>91.6</v>
       </c>
       <c r="J140">
+        <v>4.567958</v>
+      </c>
+      <c r="K140">
+        <v>0.69158390000000003</v>
+      </c>
+      <c r="L140">
+        <v>4.2913350000000001</v>
+      </c>
+      <c r="M140">
         <v>86490</v>
       </c>
-      <c r="K140">
+      <c r="N140">
         <v>2.78</v>
       </c>
-      <c r="L140">
+      <c r="O140">
         <v>51</v>
       </c>
-      <c r="M140">
+      <c r="P140">
         <v>3835.8</v>
       </c>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:16">
       <c r="A141" t="s">
         <v>24</v>
       </c>
@@ -5988,19 +7038,28 @@
         <v>58.8</v>
       </c>
       <c r="J141">
+        <v>5.1486049999999999</v>
+      </c>
+      <c r="K141">
+        <v>0.4147922</v>
+      </c>
+      <c r="L141">
+        <v>3.7147510000000001</v>
+      </c>
+      <c r="M141">
         <v>55750</v>
       </c>
-      <c r="K141">
+      <c r="N141">
         <v>2.7</v>
       </c>
-      <c r="L141">
+      <c r="O141">
         <v>48</v>
       </c>
-      <c r="M141">
+      <c r="P141">
         <v>2685.5</v>
       </c>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:16">
       <c r="A142" t="s">
         <v>24</v>
       </c>
@@ -6029,19 +7088,28 @@
         <v>50.6</v>
       </c>
       <c r="J142">
+        <v>5.4825549999999996</v>
+      </c>
+      <c r="K142">
+        <v>0.41352810000000001</v>
+      </c>
+      <c r="L142">
+        <v>3.2087940000000001</v>
+      </c>
+      <c r="M142">
         <v>56817</v>
       </c>
-      <c r="K142">
+      <c r="N142">
         <v>2.6</v>
       </c>
-      <c r="L142">
+      <c r="O142">
         <v>48</v>
       </c>
-      <c r="M142">
+      <c r="P142">
         <v>2538.5</v>
       </c>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:16">
       <c r="A143" t="s">
         <v>24</v>
       </c>
@@ -6070,19 +7138,28 @@
         <v>54.3</v>
       </c>
       <c r="J143">
+        <v>5.598401</v>
+      </c>
+      <c r="K143">
+        <v>0.40447650000000002</v>
+      </c>
+      <c r="L143">
+        <v>3.694197</v>
+      </c>
+      <c r="M143">
         <v>59353</v>
       </c>
-      <c r="K143">
+      <c r="N143">
         <v>2.65</v>
       </c>
-      <c r="L143">
+      <c r="O143">
         <v>48</v>
       </c>
-      <c r="M143">
+      <c r="P143">
         <v>2853.7</v>
       </c>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:16">
       <c r="A144" t="s">
         <v>24</v>
       </c>
@@ -6111,19 +7188,28 @@
         <v>69.099999999999994</v>
       </c>
       <c r="J144">
+        <v>5.1583030000000001</v>
+      </c>
+      <c r="K144">
+        <v>0.40506419999999999</v>
+      </c>
+      <c r="L144">
+        <v>3.2460979999999999</v>
+      </c>
+      <c r="M144">
         <v>60653</v>
       </c>
-      <c r="K144">
+      <c r="N144">
         <v>2.58</v>
       </c>
-      <c r="L144">
+      <c r="O144">
         <v>49</v>
       </c>
-      <c r="M144">
+      <c r="P144">
         <v>2908.1</v>
       </c>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:16">
       <c r="A145" t="s">
         <v>24</v>
       </c>
@@ -6152,19 +7238,28 @@
         <v>68.900000000000006</v>
       </c>
       <c r="J145">
+        <v>4.8933439999999999</v>
+      </c>
+      <c r="K145">
+        <v>0.41893200000000003</v>
+      </c>
+      <c r="L145">
+        <v>2.9696609999999999</v>
+      </c>
+      <c r="M145">
         <v>64804</v>
       </c>
-      <c r="K145">
+      <c r="N145">
         <v>2.71</v>
       </c>
-      <c r="L145">
+      <c r="O145">
         <v>49</v>
       </c>
-      <c r="M145">
+      <c r="P145">
         <v>2849.1</v>
       </c>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:16">
       <c r="A146" t="s">
         <v>24</v>
       </c>
@@ -6193,19 +7288,28 @@
         <v>70.400000000000006</v>
       </c>
       <c r="J146">
+        <v>5.2543100000000003</v>
+      </c>
+      <c r="K146">
+        <v>0.40616279999999999</v>
+      </c>
+      <c r="L146">
+        <v>3.2469649999999999</v>
+      </c>
+      <c r="M146">
         <v>65072</v>
       </c>
-      <c r="K146">
+      <c r="N146">
         <v>2.56</v>
       </c>
-      <c r="L146">
+      <c r="O146">
         <v>49</v>
       </c>
-      <c r="M146">
+      <c r="P146">
         <v>2841.2</v>
       </c>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:16">
       <c r="A147" t="s">
         <v>24</v>
       </c>
@@ -6234,19 +7338,28 @@
         <v>76.8</v>
       </c>
       <c r="J147">
+        <v>4.8401889999999996</v>
+      </c>
+      <c r="K147">
+        <v>0.40841719999999998</v>
+      </c>
+      <c r="L147">
+        <v>2.7369889999999999</v>
+      </c>
+      <c r="M147">
         <v>64176</v>
       </c>
-      <c r="K147">
+      <c r="N147">
         <v>2.6</v>
       </c>
-      <c r="L147">
+      <c r="O147">
         <v>48</v>
       </c>
-      <c r="M147">
+      <c r="P147">
         <v>2657.6</v>
       </c>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:16">
       <c r="A148" t="s">
         <v>24</v>
       </c>
@@ -6275,19 +7388,28 @@
         <v>86</v>
       </c>
       <c r="J148">
+        <v>4.8586619999999998</v>
+      </c>
+      <c r="K148">
+        <v>0.40094030000000003</v>
+      </c>
+      <c r="L148">
+        <v>2.7389100000000002</v>
+      </c>
+      <c r="M148">
         <v>68569</v>
       </c>
-      <c r="K148">
+      <c r="N148">
         <v>2.58</v>
       </c>
-      <c r="L148">
+      <c r="O148">
         <v>49</v>
       </c>
-      <c r="M148">
+      <c r="P148">
         <v>2526.9</v>
       </c>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:16">
       <c r="A149" t="s">
         <v>24</v>
       </c>
@@ -6316,19 +7438,28 @@
         <v>103.8</v>
       </c>
       <c r="J149">
+        <v>4.26084</v>
+      </c>
+      <c r="K149">
+        <v>0.39156360000000001</v>
+      </c>
+      <c r="L149">
+        <v>3.0215390000000002</v>
+      </c>
+      <c r="M149">
         <v>75467</v>
       </c>
-      <c r="K149">
+      <c r="N149">
         <v>2.58</v>
       </c>
-      <c r="L149">
+      <c r="O149">
         <v>48</v>
       </c>
-      <c r="M149">
+      <c r="P149">
         <v>2724.7</v>
       </c>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:16">
       <c r="A150" t="s">
         <v>24</v>
       </c>
@@ -6357,19 +7488,28 @@
         <v>108.1</v>
       </c>
       <c r="J150">
+        <v>4.2353300000000003</v>
+      </c>
+      <c r="K150">
+        <v>0.37665700000000002</v>
+      </c>
+      <c r="L150">
+        <v>3.0852379999999999</v>
+      </c>
+      <c r="M150">
         <v>74971</v>
       </c>
-      <c r="K150">
+      <c r="N150">
         <v>2.52</v>
       </c>
-      <c r="L150">
+      <c r="O150">
         <v>49</v>
       </c>
-      <c r="M150">
+      <c r="P150">
         <v>2879.5</v>
       </c>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:16">
       <c r="A151" t="s">
         <v>24</v>
       </c>
@@ -6398,19 +7538,28 @@
         <v>121.3</v>
       </c>
       <c r="J151">
+        <v>3.9251999999999998</v>
+      </c>
+      <c r="K151">
+        <v>0.38247029999999999</v>
+      </c>
+      <c r="L151">
+        <v>3.1244649999999998</v>
+      </c>
+      <c r="M151">
         <v>79055</v>
       </c>
-      <c r="K151">
+      <c r="N151">
         <v>2.54</v>
       </c>
-      <c r="L151">
+      <c r="O151">
         <v>49</v>
       </c>
-      <c r="M151">
+      <c r="P151">
         <v>3035.3</v>
       </c>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:16">
       <c r="A152" t="s">
         <v>24</v>
       </c>
@@ -6439,19 +7588,28 @@
         <v>104</v>
       </c>
       <c r="J152">
+        <v>4.1273439999999999</v>
+      </c>
+      <c r="K152">
+        <v>0.37794109999999997</v>
+      </c>
+      <c r="L152">
+        <v>2.700755</v>
+      </c>
+      <c r="M152">
         <v>77754</v>
       </c>
-      <c r="K152">
+      <c r="N152">
         <v>2.5</v>
       </c>
-      <c r="L152">
+      <c r="O152">
         <v>49</v>
       </c>
-      <c r="M152">
+      <c r="P152">
         <v>2924.9</v>
       </c>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:16">
       <c r="A153" t="s">
         <v>25</v>
       </c>
@@ -6480,19 +7638,25 @@
         <v>59</v>
       </c>
       <c r="J153">
+        <v>4.48116</v>
+      </c>
+      <c r="K153">
+        <v>0.45865080000000003</v>
+      </c>
+      <c r="M153">
         <v>47454</v>
       </c>
-      <c r="K153">
+      <c r="N153">
         <v>2.27</v>
       </c>
-      <c r="L153">
+      <c r="O153">
         <v>48</v>
       </c>
-      <c r="M153">
+      <c r="P153">
         <v>2739.8</v>
       </c>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:16">
       <c r="A154" t="s">
         <v>25</v>
       </c>
@@ -6521,19 +7685,25 @@
         <v>52.7</v>
       </c>
       <c r="J154">
+        <v>5.1033739999999996</v>
+      </c>
+      <c r="K154">
+        <v>0.47104849999999998</v>
+      </c>
+      <c r="M154">
         <v>51270</v>
       </c>
-      <c r="K154">
+      <c r="N154">
         <v>2.54</v>
       </c>
-      <c r="L154">
+      <c r="O154">
         <v>48</v>
       </c>
-      <c r="M154">
+      <c r="P154">
         <v>2624.7</v>
       </c>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:16">
       <c r="A155" t="s">
         <v>25</v>
       </c>
@@ -6562,19 +7732,25 @@
         <v>59.2</v>
       </c>
       <c r="J155">
+        <v>4.8655689999999998</v>
+      </c>
+      <c r="K155">
+        <v>0.4530631</v>
+      </c>
+      <c r="M155">
         <v>53007</v>
       </c>
-      <c r="K155">
+      <c r="N155">
         <v>2.29</v>
       </c>
-      <c r="L155">
+      <c r="O155">
         <v>49</v>
       </c>
-      <c r="M155">
+      <c r="P155">
         <v>2925.3</v>
       </c>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:16">
       <c r="A156" t="s">
         <v>25</v>
       </c>
@@ -6603,19 +7779,25 @@
         <v>73.5</v>
       </c>
       <c r="J156">
+        <v>4.382263</v>
+      </c>
+      <c r="K156">
+        <v>0.45721129999999999</v>
+      </c>
+      <c r="M156">
         <v>53713</v>
       </c>
-      <c r="K156">
+      <c r="N156">
         <v>2.2599999999999998</v>
       </c>
-      <c r="L156">
+      <c r="O156">
         <v>48</v>
       </c>
-      <c r="M156">
+      <c r="P156">
         <v>3004.9</v>
       </c>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:16">
       <c r="A157" t="s">
         <v>25</v>
       </c>
@@ -6644,19 +7826,25 @@
         <v>73.900000000000006</v>
       </c>
       <c r="J157">
+        <v>4.0965179999999997</v>
+      </c>
+      <c r="K157">
+        <v>0.46577940000000001</v>
+      </c>
+      <c r="M157">
         <v>52071</v>
       </c>
-      <c r="K157">
+      <c r="N157">
         <v>2.11</v>
       </c>
-      <c r="L157">
+      <c r="O157">
         <v>52</v>
       </c>
-      <c r="M157">
+      <c r="P157">
         <v>2920.7</v>
       </c>
     </row>
-    <row r="158" spans="1:13">
+    <row r="158" spans="1:16">
       <c r="A158" t="s">
         <v>25</v>
       </c>
@@ -6685,19 +7873,25 @@
         <v>73.900000000000006</v>
       </c>
       <c r="J158">
+        <v>4.8462009999999998</v>
+      </c>
+      <c r="K158">
+        <v>0.45527279999999998</v>
+      </c>
+      <c r="M158">
         <v>56879</v>
       </c>
-      <c r="K158">
+      <c r="N158">
         <v>2.4</v>
       </c>
-      <c r="L158">
+      <c r="O158">
         <v>48</v>
       </c>
-      <c r="M158">
+      <c r="P158">
         <v>2920.8</v>
       </c>
     </row>
-    <row r="159" spans="1:13">
+    <row r="159" spans="1:16">
       <c r="A159" t="s">
         <v>25</v>
       </c>
@@ -6726,19 +7920,25 @@
         <v>81.099999999999994</v>
       </c>
       <c r="J159">
+        <v>4.2642550000000004</v>
+      </c>
+      <c r="K159">
+        <v>0.45578229999999997</v>
+      </c>
+      <c r="M159">
         <v>55124</v>
       </c>
-      <c r="K159">
+      <c r="N159">
         <v>2.06</v>
       </c>
-      <c r="L159">
+      <c r="O159">
         <v>53</v>
       </c>
-      <c r="M159">
+      <c r="P159">
         <v>2687.3</v>
       </c>
     </row>
-    <row r="160" spans="1:13">
+    <row r="160" spans="1:16">
       <c r="A160" t="s">
         <v>25</v>
       </c>
@@ -6767,19 +7967,25 @@
         <v>89.9</v>
       </c>
       <c r="J160">
+        <v>4.1796879999999996</v>
+      </c>
+      <c r="K160">
+        <v>0.45100950000000001</v>
+      </c>
+      <c r="M160">
         <v>62581</v>
       </c>
-      <c r="K160">
+      <c r="N160">
         <v>2.2200000000000002</v>
       </c>
-      <c r="L160">
+      <c r="O160">
         <v>51</v>
       </c>
-      <c r="M160">
+      <c r="P160">
         <v>2591.8000000000002</v>
       </c>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161" spans="1:16">
       <c r="A161" t="s">
         <v>25</v>
       </c>
@@ -6808,19 +8014,25 @@
         <v>105.4</v>
       </c>
       <c r="J161">
+        <v>3.8636840000000001</v>
+      </c>
+      <c r="K161">
+        <v>0.4413205</v>
+      </c>
+      <c r="M161">
         <v>70104</v>
       </c>
-      <c r="K161">
+      <c r="N161">
         <v>2.19</v>
       </c>
-      <c r="L161">
+      <c r="O161">
         <v>49</v>
       </c>
-      <c r="M161">
+      <c r="P161">
         <v>2787.4</v>
       </c>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162" spans="1:16">
       <c r="A162" t="s">
         <v>25</v>
       </c>
@@ -6846,19 +8058,25 @@
         <v>108.3</v>
       </c>
       <c r="J162">
+        <v>4.0337379999999996</v>
+      </c>
+      <c r="K162">
+        <v>0.44197639999999999</v>
+      </c>
+      <c r="M162">
         <v>84012</v>
       </c>
-      <c r="K162">
+      <c r="N162">
         <v>2.31</v>
       </c>
-      <c r="L162">
+      <c r="O162">
         <v>49</v>
       </c>
-      <c r="M162">
+      <c r="P162">
         <v>2980.4</v>
       </c>
     </row>
-    <row r="163" spans="1:13">
+    <row r="163" spans="1:16">
       <c r="A163" t="s">
         <v>26</v>
       </c>
@@ -6881,19 +8099,25 @@
         <v>67.900000000000006</v>
       </c>
       <c r="J163">
+        <v>5.2124079999999999</v>
+      </c>
+      <c r="K163">
+        <v>0.43714510000000001</v>
+      </c>
+      <c r="M163">
         <v>64952</v>
       </c>
-      <c r="K163">
+      <c r="N163">
         <v>2.61</v>
       </c>
-      <c r="L163">
+      <c r="O163">
         <v>43</v>
       </c>
-      <c r="M163">
+      <c r="P163">
         <v>1391.7</v>
       </c>
     </row>
-    <row r="164" spans="1:13">
+    <row r="164" spans="1:16">
       <c r="A164" t="s">
         <v>26</v>
       </c>
@@ -6916,19 +8140,25 @@
         <v>66.900000000000006</v>
       </c>
       <c r="J164">
+        <v>5.8071979999999996</v>
+      </c>
+      <c r="K164">
+        <v>0.44719540000000002</v>
+      </c>
+      <c r="M164">
         <v>66596</v>
       </c>
-      <c r="K164">
+      <c r="N164">
         <v>2.6</v>
       </c>
-      <c r="L164">
+      <c r="O164">
         <v>47</v>
       </c>
-      <c r="M164">
+      <c r="P164">
         <v>6520.5</v>
       </c>
     </row>
-    <row r="165" spans="1:13">
+    <row r="165" spans="1:16">
       <c r="A165" t="s">
         <v>26</v>
       </c>
@@ -6951,19 +8181,25 @@
         <v>67.3</v>
       </c>
       <c r="J165">
+        <v>5.9718999999999998</v>
+      </c>
+      <c r="K165">
+        <v>0.44049379999999999</v>
+      </c>
+      <c r="M165">
         <v>66085</v>
       </c>
-      <c r="K165">
+      <c r="N165">
         <v>2.69</v>
       </c>
-      <c r="L165">
+      <c r="O165">
         <v>47</v>
       </c>
-      <c r="M165">
+      <c r="P165">
         <v>6649.9</v>
       </c>
     </row>
-    <row r="166" spans="1:13">
+    <row r="166" spans="1:16">
       <c r="A166" t="s">
         <v>26</v>
       </c>
@@ -6986,19 +8222,25 @@
         <v>81.7</v>
       </c>
       <c r="J166">
+        <v>5.503247</v>
+      </c>
+      <c r="K166">
+        <v>0.45384609999999997</v>
+      </c>
+      <c r="M166">
         <v>68655</v>
       </c>
-      <c r="K166">
+      <c r="N166">
         <v>2.5299999999999998</v>
       </c>
-      <c r="L166">
+      <c r="O166">
         <v>45</v>
       </c>
-      <c r="M166">
+      <c r="P166">
         <v>6491.2</v>
       </c>
     </row>
-    <row r="167" spans="1:13">
+    <row r="167" spans="1:16">
       <c r="A167" t="s">
         <v>26</v>
       </c>
@@ -7021,19 +8263,25 @@
         <v>83.6</v>
       </c>
       <c r="J167">
+        <v>5.717797</v>
+      </c>
+      <c r="K167">
+        <v>0.46336319999999998</v>
+      </c>
+      <c r="M167">
         <v>74864</v>
       </c>
-      <c r="K167">
+      <c r="N167">
         <v>2.5499999999999998</v>
       </c>
-      <c r="L167">
+      <c r="O167">
         <v>47</v>
       </c>
-      <c r="M167">
+      <c r="P167">
         <v>6529.1</v>
       </c>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168" spans="1:16">
       <c r="A168" t="s">
         <v>26</v>
       </c>
@@ -7056,19 +8304,25 @@
         <v>111.2</v>
       </c>
       <c r="J168">
+        <v>5.1003369999999997</v>
+      </c>
+      <c r="K168">
+        <v>0.4167418</v>
+      </c>
+      <c r="M168">
         <v>81685</v>
       </c>
-      <c r="K168">
+      <c r="N168">
         <v>2.35</v>
       </c>
-      <c r="L168">
+      <c r="O168">
         <v>48</v>
       </c>
-      <c r="M168">
+      <c r="P168">
         <v>6268.2</v>
       </c>
     </row>
-    <row r="169" spans="1:13">
+    <row r="169" spans="1:16">
       <c r="A169" t="s">
         <v>26</v>
       </c>
@@ -7091,19 +8345,25 @@
         <v>99</v>
       </c>
       <c r="J169">
+        <v>5.5504889999999998</v>
+      </c>
+      <c r="K169">
+        <v>0.40708220000000001</v>
+      </c>
+      <c r="M169">
         <v>80177</v>
       </c>
-      <c r="K169">
+      <c r="N169">
         <v>2.4300000000000002</v>
       </c>
-      <c r="L169">
+      <c r="O169">
         <v>48</v>
       </c>
-      <c r="M169">
+      <c r="P169">
         <v>6757.7</v>
       </c>
     </row>
-    <row r="170" spans="1:13">
+    <row r="170" spans="1:16">
       <c r="A170" t="s">
         <v>27</v>
       </c>
@@ -7132,19 +8392,28 @@
         <v>57.4</v>
       </c>
       <c r="J170">
+        <v>5.0997370000000002</v>
+      </c>
+      <c r="K170">
+        <v>7.7499600000000002E-2</v>
+      </c>
+      <c r="L170">
+        <v>4.9880360000000001</v>
+      </c>
+      <c r="M170">
         <v>49696</v>
       </c>
-      <c r="K170">
+      <c r="N170">
         <v>2.5499999999999998</v>
       </c>
-      <c r="L170">
+      <c r="O170">
         <v>50</v>
       </c>
-      <c r="M170">
+      <c r="P170">
         <v>5970.1</v>
       </c>
     </row>
-    <row r="171" spans="1:13">
+    <row r="171" spans="1:16">
       <c r="A171" t="s">
         <v>27</v>
       </c>
@@ -7173,19 +8442,28 @@
         <v>53.3</v>
       </c>
       <c r="J171">
+        <v>5.3328189999999998</v>
+      </c>
+      <c r="K171">
+        <v>7.6895599999999995E-2</v>
+      </c>
+      <c r="L171">
+        <v>4.2429459999999999</v>
+      </c>
+      <c r="M171">
         <v>50252</v>
       </c>
-      <c r="K171">
+      <c r="N171">
         <v>2.4900000000000002</v>
       </c>
-      <c r="L171">
+      <c r="O171">
         <v>48</v>
       </c>
-      <c r="M171">
+      <c r="P171">
         <v>5141.3999999999996</v>
       </c>
     </row>
-    <row r="172" spans="1:13">
+    <row r="172" spans="1:16">
       <c r="A172" t="s">
         <v>27</v>
       </c>
@@ -7214,19 +8492,28 @@
         <v>57.3</v>
       </c>
       <c r="J172">
+        <v>5.5024090000000001</v>
+      </c>
+      <c r="K172">
+        <v>7.4785900000000002E-2</v>
+      </c>
+      <c r="L172">
+        <v>4.3292390000000003</v>
+      </c>
+      <c r="M172">
         <v>53951</v>
       </c>
-      <c r="K172">
+      <c r="N172">
         <v>2.58</v>
       </c>
-      <c r="L172">
+      <c r="O172">
         <v>49</v>
       </c>
-      <c r="M172">
+      <c r="P172">
         <v>5219.8999999999996</v>
       </c>
     </row>
-    <row r="173" spans="1:13">
+    <row r="173" spans="1:16">
       <c r="A173" t="s">
         <v>27</v>
       </c>
@@ -7255,19 +8542,28 @@
         <v>66.7</v>
       </c>
       <c r="J173">
+        <v>5.2094240000000003</v>
+      </c>
+      <c r="K173">
+        <v>7.6322899999999999E-2</v>
+      </c>
+      <c r="L173">
+        <v>4.7868919999999999</v>
+      </c>
+      <c r="M173">
         <v>53841</v>
       </c>
-      <c r="K173">
+      <c r="N173">
         <v>2.44</v>
       </c>
-      <c r="L173">
+      <c r="O173">
         <v>49</v>
       </c>
-      <c r="M173">
+      <c r="P173">
         <v>5847.8</v>
       </c>
     </row>
-    <row r="174" spans="1:13">
+    <row r="174" spans="1:16">
       <c r="A174" t="s">
         <v>27</v>
       </c>
@@ -7296,19 +8592,28 @@
         <v>65</v>
       </c>
       <c r="J174">
+        <v>5.0222930000000003</v>
+      </c>
+      <c r="K174">
+        <v>7.7880500000000005E-2</v>
+      </c>
+      <c r="L174">
+        <v>3.783674</v>
+      </c>
+      <c r="M174">
         <v>56221</v>
       </c>
-      <c r="K174">
+      <c r="N174">
         <v>2.5499999999999998</v>
       </c>
-      <c r="L174">
+      <c r="O174">
         <v>49</v>
       </c>
-      <c r="M174">
+      <c r="P174">
         <v>5475.1</v>
       </c>
     </row>
-    <row r="175" spans="1:13">
+    <row r="175" spans="1:16">
       <c r="A175" t="s">
         <v>27</v>
       </c>
@@ -7337,19 +8642,28 @@
         <v>63.2</v>
       </c>
       <c r="J175">
+        <v>5.6343480000000001</v>
+      </c>
+      <c r="K175">
+        <v>7.6845999999999998E-2</v>
+      </c>
+      <c r="L175">
+        <v>3.9756589999999998</v>
+      </c>
+      <c r="M175">
         <v>59595</v>
       </c>
-      <c r="K175">
+      <c r="N175">
         <v>2.61</v>
       </c>
-      <c r="L175">
+      <c r="O175">
         <v>48</v>
       </c>
-      <c r="M175">
+      <c r="P175">
         <v>5952.8</v>
       </c>
     </row>
-    <row r="176" spans="1:13">
+    <row r="176" spans="1:16">
       <c r="A176" t="s">
         <v>27</v>
       </c>
@@ -7378,19 +8692,28 @@
         <v>67.599999999999994</v>
       </c>
       <c r="J176">
+        <v>5.2856820000000004</v>
+      </c>
+      <c r="K176">
+        <v>7.70927E-2</v>
+      </c>
+      <c r="L176">
+        <v>3.8185519999999999</v>
+      </c>
+      <c r="M176">
         <v>58804</v>
       </c>
-      <c r="K176">
+      <c r="N176">
         <v>2.48</v>
       </c>
-      <c r="L176">
+      <c r="O176">
         <v>49</v>
       </c>
-      <c r="M176">
+      <c r="P176">
         <v>5778.2</v>
       </c>
     </row>
-    <row r="177" spans="1:13">
+    <row r="177" spans="1:16">
       <c r="A177" t="s">
         <v>27</v>
       </c>
@@ -7419,19 +8742,28 @@
         <v>76.7</v>
       </c>
       <c r="J177">
+        <v>5.2642889999999998</v>
+      </c>
+      <c r="K177">
+        <v>7.5143199999999993E-2</v>
+      </c>
+      <c r="L177">
+        <v>4.0568070000000001</v>
+      </c>
+      <c r="M177">
         <v>60749</v>
       </c>
-      <c r="K177">
+      <c r="N177">
         <v>2.4</v>
       </c>
-      <c r="L177">
+      <c r="O177">
         <v>50</v>
       </c>
-      <c r="M177">
+      <c r="P177">
         <v>6028.6</v>
       </c>
     </row>
-    <row r="178" spans="1:13">
+    <row r="178" spans="1:16">
       <c r="A178" t="s">
         <v>27</v>
       </c>
@@ -7460,19 +8792,28 @@
         <v>96.6</v>
       </c>
       <c r="J178">
+        <v>4.4387629999999998</v>
+      </c>
+      <c r="K178">
+        <v>7.2871699999999998E-2</v>
+      </c>
+      <c r="L178">
+        <v>3.2767379999999999</v>
+      </c>
+      <c r="M178">
         <v>65414</v>
       </c>
-      <c r="K178">
+      <c r="N178">
         <v>2.4700000000000002</v>
       </c>
-      <c r="L178">
+      <c r="O178">
         <v>48</v>
       </c>
-      <c r="M178">
+      <c r="P178">
         <v>5157.3</v>
       </c>
     </row>
-    <row r="179" spans="1:13">
+    <row r="179" spans="1:16">
       <c r="A179" t="s">
         <v>27</v>
       </c>
@@ -7501,19 +8842,28 @@
         <v>102.2</v>
       </c>
       <c r="J179">
+        <v>4.6707150000000004</v>
+      </c>
+      <c r="K179">
+        <v>7.2414999999999993E-2</v>
+      </c>
+      <c r="L179">
+        <v>3.7117749999999998</v>
+      </c>
+      <c r="M179">
         <v>66607</v>
       </c>
-      <c r="K179">
+      <c r="N179">
         <v>2.4700000000000002</v>
       </c>
-      <c r="L179">
+      <c r="O179">
         <v>49</v>
       </c>
-      <c r="M179">
+      <c r="P179">
         <v>5750.4</v>
       </c>
     </row>
-    <row r="180" spans="1:13">
+    <row r="180" spans="1:16">
       <c r="A180" t="s">
         <v>27</v>
       </c>
@@ -7542,19 +8892,28 @@
         <v>115.8</v>
       </c>
       <c r="J180">
+        <v>4.1412839999999997</v>
+      </c>
+      <c r="K180">
+        <v>7.4213399999999999E-2</v>
+      </c>
+      <c r="L180">
+        <v>3.1628959999999999</v>
+      </c>
+      <c r="M180">
         <v>67790</v>
       </c>
-      <c r="K180">
+      <c r="N180">
         <v>2.46</v>
       </c>
-      <c r="L180">
+      <c r="O180">
         <v>49</v>
       </c>
-      <c r="M180">
+      <c r="P180">
         <v>6184</v>
       </c>
     </row>
-    <row r="181" spans="1:13">
+    <row r="181" spans="1:16">
       <c r="A181" t="s">
         <v>27</v>
       </c>
@@ -7583,19 +8942,28 @@
         <v>94.4</v>
       </c>
       <c r="J181">
+        <v>4.7104530000000002</v>
+      </c>
+      <c r="K181">
+        <v>7.2880299999999995E-2</v>
+      </c>
+      <c r="L181">
+        <v>3.3069920000000002</v>
+      </c>
+      <c r="M181">
         <v>71119</v>
       </c>
-      <c r="K181">
+      <c r="N181">
         <v>2.4</v>
       </c>
-      <c r="L181">
+      <c r="O181">
         <v>49</v>
       </c>
-      <c r="M181">
+      <c r="P181">
         <v>5923.2</v>
       </c>
     </row>
-    <row r="182" spans="1:13">
+    <row r="182" spans="1:16">
       <c r="A182" t="s">
         <v>28</v>
       </c>
@@ -7618,19 +8986,25 @@
         <v>73.900000000000006</v>
       </c>
       <c r="J182">
+        <v>3.812557</v>
+      </c>
+      <c r="K182">
+        <v>2.8789560000000001</v>
+      </c>
+      <c r="M182">
         <v>81282</v>
       </c>
-      <c r="K182">
+      <c r="N182">
         <v>2.78</v>
       </c>
-      <c r="L182">
+      <c r="O182">
         <v>39</v>
       </c>
-      <c r="M182">
+      <c r="P182">
         <v>7919.4</v>
       </c>
     </row>
-    <row r="183" spans="1:13">
+    <row r="183" spans="1:16">
       <c r="A183" t="s">
         <v>28</v>
       </c>
@@ -7653,19 +9027,25 @@
         <v>72.099999999999994</v>
       </c>
       <c r="J183">
+        <v>3.9424190000000001</v>
+      </c>
+      <c r="K183">
+        <v>2.9415979999999999</v>
+      </c>
+      <c r="M183">
         <v>90339</v>
       </c>
-      <c r="K183">
+      <c r="N183">
         <v>2.92</v>
       </c>
-      <c r="L183">
+      <c r="O183">
         <v>42</v>
       </c>
-      <c r="M183">
+      <c r="P183">
         <v>7072.5</v>
       </c>
     </row>
-    <row r="184" spans="1:13">
+    <row r="184" spans="1:16">
       <c r="A184" t="s">
         <v>28</v>
       </c>
@@ -7688,19 +9068,25 @@
         <v>73.599999999999994</v>
       </c>
       <c r="J184">
+        <v>4.4194560000000003</v>
+      </c>
+      <c r="K184">
+        <v>3.0363790000000002</v>
+      </c>
+      <c r="M184">
         <v>98302</v>
       </c>
-      <c r="K184">
+      <c r="N184">
         <v>2.95</v>
       </c>
-      <c r="L184">
+      <c r="O184">
         <v>40</v>
       </c>
-      <c r="M184">
+      <c r="P184">
         <v>7565.7</v>
       </c>
     </row>
-    <row r="185" spans="1:13">
+    <row r="185" spans="1:16">
       <c r="A185" t="s">
         <v>28</v>
       </c>
@@ -7723,19 +9109,25 @@
         <v>88.2</v>
       </c>
       <c r="J185">
+        <v>3.5396709999999998</v>
+      </c>
+      <c r="K185">
+        <v>2.9330470000000002</v>
+      </c>
+      <c r="M185">
         <v>82510</v>
       </c>
-      <c r="K185">
+      <c r="N185">
         <v>2.87</v>
       </c>
-      <c r="L185">
+      <c r="O185">
         <v>41</v>
       </c>
-      <c r="M185">
+      <c r="P185">
         <v>7705.7</v>
       </c>
     </row>
-    <row r="186" spans="1:13">
+    <row r="186" spans="1:16">
       <c r="A186" t="s">
         <v>28</v>
       </c>
@@ -7758,19 +9150,25 @@
         <v>92.2</v>
       </c>
       <c r="J186">
+        <v>3.5379079999999998</v>
+      </c>
+      <c r="K186">
+        <v>2.7686980000000001</v>
+      </c>
+      <c r="M186">
         <v>91705</v>
       </c>
-      <c r="K186">
+      <c r="N186">
         <v>2.59</v>
       </c>
-      <c r="L186">
+      <c r="O186">
         <v>42</v>
       </c>
-      <c r="M186">
+      <c r="P186">
         <v>7995.7</v>
       </c>
     </row>
-    <row r="187" spans="1:13">
+    <row r="187" spans="1:16">
       <c r="A187" t="s">
         <v>28</v>
       </c>
@@ -7793,19 +9191,25 @@
         <v>118</v>
       </c>
       <c r="J187">
+        <v>3.5421749999999999</v>
+      </c>
+      <c r="K187">
+        <v>2.4007770000000002</v>
+      </c>
+      <c r="M187">
         <v>111157</v>
       </c>
-      <c r="K187">
+      <c r="N187">
         <v>2.52</v>
       </c>
-      <c r="L187">
+      <c r="O187">
         <v>44</v>
       </c>
-      <c r="M187">
+      <c r="P187">
         <v>8139.1</v>
       </c>
     </row>
-    <row r="188" spans="1:13">
+    <row r="188" spans="1:16">
       <c r="A188" t="s">
         <v>28</v>
       </c>
@@ -7828,15 +9232,21 @@
         <v>111.5</v>
       </c>
       <c r="J188">
+        <v>3.4579010000000001</v>
+      </c>
+      <c r="K188">
+        <v>2.3445849999999999</v>
+      </c>
+      <c r="M188">
         <v>116616</v>
       </c>
-      <c r="K188">
+      <c r="N188">
         <v>2.5099999999999998</v>
       </c>
-      <c r="L188">
+      <c r="O188">
         <v>46</v>
       </c>
-      <c r="M188">
+      <c r="P188">
         <v>8186</v>
       </c>
     </row>
